--- a/dist/poynter.xlsx
+++ b/dist/poynter.xlsx
@@ -14,11 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164" count="164">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="881" count="881">
+  <x:si>
+    <x:t>handle</x:t>
+  </x:si>
   <x:si>
     <x:t>name</x:t>
   </x:si>
   <x:si>
+    <x:t>bio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tenure</x:t>
+  </x:si>
+  <x:si>
     <x:t>tweet_count</x:t>
   </x:si>
   <x:si>
@@ -28,12 +37,78 @@
     <x:t>followers</x:t>
   </x:si>
   <x:si>
-    <x:t>tweets</x:t>
+    <x:t>tweet-0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tweet-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rilaws</x:t>
   </x:si>
   <x:si>
     <x:t>Richard Lawson</x:t>
   </x:si>
   <x:si>
+    <x:t>Critic/Columnist for http://VanityFair.com  | @LittleGoldMen podcaster | richard_lawson@condenast.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.12 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>72K</x:t>
   </x:si>
   <x:si>
@@ -43,42 +118,236 @@
     <x:t>40.4K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>RT This is my main issue, tbh https://twitter.com/JRubinBlogger/status/704707288016130048 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I wish this quote in @mike_hogan's great O.J. Simpson/Dominick Dunne piece was mine http://www.vanityfair.com/hollywood/2016/02/dominick-dunne-oj-simpson-american-crime-story … pic.twitter.com/uxDvlRDZ0x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is the RHONY season where producers have hidden a gun somewhere and the wives compete to find it first right</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Feel like he put this up like two days too soon https://www.youtube.com/watch?v=7Vz4lgcebq4 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amy Adams plays housewife turned crime fighter Tuesday Thompson in SUPER TUESDAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Last Oscars podcast! Final thoughts and some party coverage. http://www.vanityfair.com/hollywood/2016/02/2016-oscars-explainer …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ohh dear. pic.twitter.com/RYbiwGiI9X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We're the farthest we'll ever be from Oscar season</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Showtime should have an on demand feature called "Shameless: Just the Gay Parts"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZOOTOPIA is delightful!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Hollywood Medium guy should win best song next year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT This moment is pure Jordan Catalano http://www.vanityfair.com/hollywood/photos/2016/02/oscar-party-photos#7 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>People can be such different sizes https://www.instagram.com/p/BCXBZzDHqM1/ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>No fun! https://twitter.com/samsmithworld/status/704374149326581760 … pic.twitter.com/fNjrGLZqNu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Let me get this straight, you had a dream, about ME?" pic.twitter.com/lrjxo5GXSk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT How could Sam Smith forget the speech that made gay marriage happen? https://twitter.com/DLanceBlack/status/614439171898261504 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wish I had a fiance for Sam Smith to text :( :( :( :( :( :( :( :(</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If Dustin Lance Black is Veronica, Sam Smith is Betty, and Tom Daley is Archie, does that make me Miss Grundy?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O_O https://twitter.com/dlanceblack/status/704199543076818944 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kate watching Leo/Nelson Muntz pic.twitter.com/i9l63knHeA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kevinroose</x:t>
   </x:si>
   <x:si>
     <x:t>Kevin Roose</x:t>
   </x:si>
   <x:si>
-    <x:t>462</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,301</x:t>
+    <x:t>I made a TV show and you should watch it: http://realfuture.tv . Also, news director at @ThisIsFusion, author of Young Money. PGP key: http://bit.ly/1OpHjkQ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.15 years</x:t>
+  </x:si>
+  <x:si>
+    <x:t>468</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,300</x:t>
   </x:si>
   <x:si>
     <x:t>33.8K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>Last year, I gave two expert hackers a challenge: destroy my life as completely as possible. Here's the result: http://fusion.net/video/271750/real-future-episode-8-hack-attack/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT I asked a handful of botsmiths what, if anything, they have planned for their bots after they die.  http://fusion.net/story/274773/twitter-bots-after-death/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>One of the black students ejected from a Trump rally yesterday tells @rjwile: "All we can do now is just pray." http://fusion.net/story/275426/valdosta-u-trump-rally-mikey-sanders/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT *fingertip kissing Italian chef* pic.twitter.com/grcbLopeEF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Let’s celebrate the fact that Google has built enough risk into its cars that they occasionally cause an accident." http://fusion.net/story/275153/its-good-news-that-googles-self-driving-car-caused-an-accident/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT One of the largest single layoffs in history: 1.8 million coal and steel workers in China http://qz.com/627467 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT A Google self-driving car caused a crash on Feb 14.
+Meanwhile, regular cars caused about 16,700 crashes that day: http://www-nrd.nhtsa.dot.gov/Pubs/812219.pdf </x:t>
+  </x:si>
+  <x:si>
+    <x:t>I sincerely admire the chutzpah of the 5 hackers who have tried to phish me since my story about getting phished was published.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT I spoke to 30 Rock's Robert Carlock about the magick and mystery of Leap Day William http://www.atlasobscura.com/articles/30-rock-cocreator-tells-the-story-behind-leap-day-william … pic.twitter.com/Kox2JNbfYj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A Google's self-driving car just caused its first crash. (We should still ban human drivers, tho.) http://fusion.net/story/275008/google-self-driving-car-caused-accident/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Even the tech workers are getting priced out of the Bay Area http://qz.com/627414/tech-workers-are-increasingly-looking-to-leave-silicon-valley/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>no pic.twitter.com/7dDSe1fV14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Everything you need to know about David Duke, a bad man. http://fusion.net/story/274729/donald-trump-david-duke-endorsement/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT This sentence is the most 2016 sentence  https://twitter.com/NYDailyNews/status/704348727281111041 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>It will be illegal to embed John Oliver videos during the Trump presidency, so get your traffic in now, bloggers!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Gifs of celebs reacting to Chris Rock's monologue
+http://fusion.net/story/274485/chris-rock-oscars-monologue-jokes/ … pic.twitter.com/Cttui5WWCa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I'm old enough to remember when the biggest scandal in the GOP was Mitt Romney having a car elevator.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT This has made my Saturday: the video @kevinroose made at @defcon with @Viss, @humanhacker, + myself is on @WORLDSTAR http://m.worldstarhiphop.com/apple/video.php?v=wshhCWIt4mG423Fr26pI …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thestalwart</x:t>
   </x:si>
   <x:si>
     <x:t>Joe Weisenthal</x:t>
   </x:si>
   <x:si>
+    <x:t>Co-host of 'What'd You Miss?' on BloombergTV. Editor at @markets. Fan of poker, chess, handball, country music, and Chinese food.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.99 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>244K</x:t>
   </x:si>
   <x:si>
-    <x:t>4,506</x:t>
+    <x:t>4,510</x:t>
   </x:si>
   <x:si>
     <x:t>107K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>What'd I miss?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whoops, meant ht @felixsalmon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@BruceBartlett is voting Trump today in the hopes that it will accelerate the GOP's demise. https://www.facebook.com/bruce.bartlett/posts/10156639327825437 … ht: @FakeFelixSalmon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT My Valeant column today contains the ultimate Bill Ackman troll chart.  http://www.bloomberg.com/gadfly/articles/2016-03-01/bill-ackman-s-valeant-bet-going-wrong-isn-t-just-a-pr-problem … pic.twitter.com/R6I3P2uNAq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Bill Ackman Loses $321 Million in One Day as Valeant Plunges http://bloom.bg/1ngt9Gy  via @business</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Turnout has been through the roof! We are having print additional ballots for some precincts.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT People knock @paulkrugman's political chops, but he was one of the 1st pundits to take Trump seriously: http://krugman.blogs.nytimes.com/2015/07/14/the-face-of-the-base/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Markets still just see a 63% chance of a hike at some point this year.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Markets in contentment.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time for a TV special for whatever the opposite of "markets in turmoil" is.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOW UP 300 http://www.bloomberg.com/news/articles/2016-02-29/japan-futures-down-on-strong-yen-as-china-stimulus-buoys-aussie … pic.twitter.com/Fe46GLu5C4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @DanielleMorrill I am not wrong. Read every technology and finance tweet of mine since 2009.  Don't think a single one has proven to be off.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT When stores offer a discount on ammo when you use the NEVERTRUMP coupon code, I'll know our political reshuffling has truly begun.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>By now there must be enough polling data to know who's won all the states right? DM me with it pls. I won't tell.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gerald Friedman is a Hillary supporter. https://www.washingtonpost.com/news/wonk/wp/2016/02/18/the-economist-who-validated-bernie-sanders-big-liberal-plans-is-voting-for-hillary-clinton/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oh wow. DNC chief @DWStweets wants to gut the CFPB's ability to regulate payday lenders. http://www.huffingtonpost.com/entry/debbie-wasserman-schultz-paylenders-cfpb_us_56d4ce38e4b03260bf77e8fc … HT: @M_C_Klein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT How Premier League soccer can save the world http://www.tandfonline.com/doi/abs/10.1080/1612197X.2016.1149873 … #NobelForDiegoCosta http://www.tandfonline.com/doi/abs/10.1080/1612197X.2016.1149873 … pic.twitter.com/qeIAb2Oby6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT I've long admired @michaelbd 's writing, and now he has become the single most vital chronicler of Trumpism http://theweek.com/articles/609234/even-youre-ready-burn-world-down-dont-support-donald-trump …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Will have both @conorsen and @georgepearkes on (at the same time) breaking down the latest econ data for us on #WDYM today.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ditzkoff</x:t>
   </x:si>
   <x:si>
     <x:t>Dave Itzkoff</x:t>
   </x:si>
   <x:si>
+    <x:t>''As a Jew, I'm very judgmental. As a street Jew, doubly so.'' --Sidney Lumet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.39 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>13.3K</x:t>
   </x:si>
   <x:si>
@@ -88,12 +357,83 @@
     <x:t>54K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>Oh. http://mobile.nytimes.com/2016/02/25/upshot/measuring-donald-trumps-supporters-for-intolerance.html … pic.twitter.com/1IQYuuukla</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT It's official: The man in black fled across the desert and the gunslinger followed. #DarkTowerMovie @McConaughey @IdrisElba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>same pic.twitter.com/oTDitOzpEG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>After a 10-year silence, this isn't the sort of question you expect Justice Thomas to ask pic.twitter.com/ofxQSBJE8v</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A stage version of Dead Poets Society is coming to Classic Stage Company in NYC, by its screenwriter Tom Schulman. http://artsbeat.blogs.nytimes.com/2016/02/29/dead-poets-society-pacific-overtures-will-be-part-of-classic-stage-season/?module=BlogPost-Title&amp;version=Blog%20Main&amp;contentCollection=Theater&amp;action=Click&amp;pgtype=Blogs&amp;region=Body …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Do we all think she's Luke Skywalker's daughter? Or is that too easy?" pic.twitter.com/Q6SzYIs6dG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flight of the Conchords are going back on tour. God bless America. pic.twitter.com/5QQhtbVDlk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oscar for journalism movie revoked  https://twitter.com/max_read/status/704291399634649088 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TONIGHT: Journalism movie wins Oscar!
+MONDAY MORNING: pay for content? get outta here</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I am totally going into the office tomorrow and journalisming the hello out of some journalism.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOURNALISTS!
+JOURNALISTS!
+JOURNALISTS!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Well, Kate, see you at the after party."
+"Meet you at the door?"
+"...that's not funny." pic.twitter.com/WrafQHM9SY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THANK KIRK CAMERON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Leo DiCaprio? You don't say. pic.twitter.com/usmqX1tx4N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>One day, Tremblay. One day it will be yours. pic.twitter.com/WWFSda9hyu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACADEMY AWARD WINNER ENVY ADAMS pic.twitter.com/1tVk6DgGf2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT pic.twitter.com/Sv9tPqFBfm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@realDonaldTrump a Mexican won the Oscar for best director. For the second year in a row.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>When Ali G makes an appearance at the 2016 Oscars pic.twitter.com/s1d8UvD89O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THE CURSE OF BUMPING INTO LEO DICAPRIO AT THE GOLDEN GLOBES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nprmonkeysee</x:t>
   </x:si>
   <x:si>
     <x:t>Linda Holmes</x:t>
   </x:si>
   <x:si>
+    <x:t>Host of NPR's Pop Culture Happy Hour, culture writer, talker, professional enthusiast. Likes: coffee, romantic comedy, the Midwest, fall weather, sassing you.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.60 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>60.8K</x:t>
   </x:si>
   <x:si>
@@ -103,13 +443,79 @@
     <x:t>74K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>I'm home today making a cold go away, which means this scarf is totally getting done. #silverlining</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New York: @pchh will be in town on a field trip this weekend. Meetup at Lowlands Bar in Brooklyn, 5:00 p.m. on Saturday 3/5. Come say hi!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A free gift made of Stephen's tears and heart muscle and insomnia. The best. https://twitter.com/idislikestephen/status/704655017936990209 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I feel like Dayquil is the one that SHOULDN'T make me foggy. Do I not know night from day anymore?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Haven't even looked at the comments on the Oscars piece today. Curiosity 0, Self-Preservation 1.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I keep waiting for some other explanation for this besides her outfit. Was it really her outfit? REALLY? http://www.vulture.com/2016/02/oscars-dudes-cant-handle-jenny-beavans-jacket.html …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>When I tell you I can keep a taping I'm hosting under 15 minutes, you'll see I'm right when you stop the clock. pic.twitter.com/upCTgMQpRx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>One of the cruel tricks of having a cold is that even if it's not THAT bad, you feel like you're dying in a novel when you first wake up.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Good thing, by the way, that they chose the story of the brutally abused woman to make the funny joke about in its BP intro. #NPROscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The thing I want to see when we're about a half-hour over time? Yeah, it's Sacha Baron Cohen. #NPROscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Do you think he and Lady Gaga are really friends? I would love that. Like, if they texted each other flame emojis all the time. #NPROscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thought about this too and decided I did not want to think about it.  https://twitter.com/MarkHarrisNYC/status/704151857367818240 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Another great moment in "Ride Of The Valkyries" SERIOUSLY STOP IT. #NPROscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I would have been happy to see something from CREED get something, but honestly, for me? It should've been Jordan anyway. #NPROscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I was underwhelmed by BRIDGE OF SPIES, but Rylance deserves it just for "Would it help?" #NPROscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I can barely stay awake during this *clip* from THE BIG SHORT. #contrarian #NPROscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This seems maybe a little on the nose. #NPROscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We've talked about how much Pete Docter looks like he's IN a Pixar movie, right? Good. I loved this movie, BTW. #NPROscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Now they're going to make me hate TOY STORY. #NPROscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The problem with animated characters is they can't read the room and tell when they're annoying people. #NPROscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>caityweaver</x:t>
   </x:si>
   <x:si>
     <x:t>Caity Weaver</x:t>
   </x:si>
   <x:si>
-    <x:t>6,009</x:t>
+    <x:t>@GQMagazine NOT @GQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.46 years</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,010</x:t>
   </x:si>
   <x:si>
     <x:t>78</x:t>
@@ -118,12 +524,78 @@
     <x:t>28.8K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>I only wish more of our fabulous presidents were still alive to hear the music of Justin Bieber. WHOM I INTERVIEWED: http://gq.mn/WIIjGZ1 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@jimmykimmel Please issue a takedown to Miss Stacey Dash for copying Celebs Read Mean Tweets as if she's a celeb pic.twitter.com/6hr9yWRGBM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Still in shock at having discovered the true nature of Jacob Tremblay.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fight power....EMILY BLUNT!....fight the power...LEO DICAPRIO HOSPITALITY PROVIDED BY MARRIOTT!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FIGHT THE POWER OVER THESE CLOSING CREDITS IS THE HIGHLIGHT OF BLACK HISTORY MONTH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT A giant PR failure is how much credit The Revenant gets for being "hard to make" when clearly Mad Max was way harder.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This guy should thank DARK CLOTHES for makin' him feel so gooooooood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"I didn't know dark clothes faded." - @tcberman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"everyone loves the way dark clothes make them feel" - ad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David Bowie got an In Memoriam clip from Zoolander. We'll never forget you David "Zoolander" Bowie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Didn't read Jacob Tremblay's review but I'LL BE REAL I really enjoyed Bridge of Spies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I honestly thought Jacob Tremblay was at all these awards shows bc he was a really precocious young film reviewer and I HATED that!!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@tcberman informs me that the boy I have been thinking--for months--was a child prodigy movie reviewer is actually the little boy from Room</x:t>
+  </x:si>
+  <x:si>
+    <x:t>That's the first time Australians have ever been thanked.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>She's up there braggin like she did not just win an Oscar...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>He said "Yes that man in the tuxedo is a pedophile."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asked @tcberman if the real guy there from Spotlight was "one of the bad guys." I HAD IT CONFUSED WITH THE BIG SHORT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT I'd support a televised award show for the unheralded employees of the IRS who collect the revenues that fund important regulatory agencies.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>How many people mumbled "in TEG ral" like Cate Blanchett, to test it out? Everyone in my living room did.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Who will be the first winner to make their thank you scroll: 8==D~</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bittman</x:t>
   </x:si>
   <x:si>
     <x:t>Mark Bittman</x:t>
   </x:si>
   <x:si>
+    <x:t>Co-founder of @PurpleCarrotXO, cookbook author (#KitchenMatrix, #VB6, etc.), fellow @UCSUSA, lecturer at UC Berkeley. Busy!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.05 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>6,488</x:t>
   </x:si>
   <x:si>
@@ -133,12 +605,79 @@
     <x:t>555K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>Potato Korma, weeknight crepes, and Thai-flavored chaat this wk @PurpleCarrotXO http://bit.ly/TPC_Menu  pic.twitter.com/Cnd5JdNfQ2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is what winter produce is all about: http://bit.ly/_cauliflower  @PurpleCarrotXO pic.twitter.com/66IVeV5bw9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>My take on Mexican posole: http://bit.ly/popcornposole  @PurpleCarrotXO pic.twitter.com/Z1RQivIbPz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Honored to have Will Allen of @GrowingPower at Edible Ed  3/1 to talk about the Good Food Revolution. Get your tix: http://bit.ly/1Q0rKhz </x:t>
+  </x:si>
+  <x:si>
+    <x:t>That Was Easy: In Just 60 Years, Neoliberal Capitalism Has Nearly Broken Planet Earth http://buff.ly/1QxWfZs </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tonights edible ed 101 will be amazing - three movers &amp; shakers in food startups (then there's me ... sigh): https://www.facebook.com/EdibleSchoolyardProject/posts/10153401373216762 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Debunking myths about fat: Eat Fat, Get Thin. http://amzn.to/1OcWkVJ  new book by @MarkHymanMD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Antonin Scalia: Looking Backward http://buff.ly/1RXbYXi  &lt;- Toobin at his best.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Solar cars might be impressive. But vegan diets are better for the planet: http://buff.ly/1TAxMck  &lt;- even part-time vegan diets</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Our Salade Niçoise features a super variety feast of winter produce: @PurpleCarrotXO + http://bit.ly/TPC_Menu  pic.twitter.com/18heOI9DC7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Did you notice that whole head of garlic in your Purple Carrot box? Learn to peel it like a pro. pic.twitter.com/qt8UiejgIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fry cauliflower, serve it in curry-infused tomato sauce: http://bit.ly/_cauliflower  @PurpleCarrotXO pic.twitter.com/wO4NwHckPV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>How does Vitamin Water get to say "vitamins + water = all you need"? a) not true; b) not what's in the bottle! http://buff.ly/1Ws3Ygh </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Next up in Edible Ed: rising stars and food entrepreneurs @sweetgreen, @BacktotheRoots and more! Tickets for 2/23: http://bit.ly/1onFzhr </x:t>
+  </x:si>
+  <x:si>
+    <x:t>What a shock; domestic "Parmesan" is no good. http://buff.ly/1SSTloS . There is only one Parmesan; it's from Italy.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FDA to Start Testing for Glyphosate in Food | Civil Eats http://buff.ly/20DYWOL </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bamboo rice, red cabbage, mango, and mustard vinaigrette = Tofu Escabeche: http://bit.ly/escabeche_  @PurpleCarrotXO pic.twitter.com/b9Ze9SWGhy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Don't miss tonight's Edible Education 101 on regional food systems! Tickets still available via @eventbrite: https://www.eventbrite.com/myevent?eid=21320152149 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scalia was confirmed right before Election Day: http://buff.ly/1QiRZTH </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Mark @Bittman Dishes on #MeatlessMonday and @PurpleCarrotXO: http://ow.ly/Yl5cy  pic.twitter.com/ZTya2dg029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gaelgreene</x:t>
   </x:si>
   <x:si>
     <x:t>Gael Greene</x:t>
   </x:si>
   <x:si>
+    <x:t>NYC restaurant critic for 46 years, sybarite, author of 7 books (two best-selling novels and memoir Insatiable), co-founded Citymeals-on-Wheels with James Beard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.88 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>17.2K</x:t>
   </x:si>
   <x:si>
@@ -148,42 +687,248 @@
     <x:t>219K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>Two NewYorkers open a branch of famous Florence panini shop Antica Noe at 220 E.53 with 10 of the most popular sandwiches they fell in love.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Citymeals co-president Daniel Boulud devised the ChefsDeliver program so the city's chefs would see what the delivered meal actually mean.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junnno Chef Hubbell, participating in Citymeals ChefsDeliver outreach, said he was touched to meet the homebound who get meal deliveries.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junno's Steven Hubbell delivers India-accented lunch to Citymeals shutin Mina, after sending 100 meals to the Bronx pic.twitter.com/Zn8AMWl8CK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Persuaded friends to try torts della nonna. House sent gift of cookies. I couldn't resist but then,I rarely do. pic.twitter.com/ZYoc8Dj0DY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tried LaSirena's soft, sensuous, sweet and sour pork meatballs sittng on escarole w/pecorino. pic.twitter.com/Du1iQK50sM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corner @LaSirena table lasngt. Squash hidden inside house made lush &amp; creamy burrata w/pesto in Pantelleria-style. pic.twitter.com/QXFI0rggh5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If you like oldfashioned American pies like I do,my latest instagram will have you rushing to Salvation Burger. http://bit.ly/1XY1RSD </x:t>
+  </x:si>
+  <x:si>
+    <x:t>There's no question salt labels will mean more expense for restaurants required to post them. https://twitter.com/grubstreet/status/704547725795319808 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Sign up to receive our Special Delivery e-newsletter to stay up to date on all Citymeals news and events: http://ow.ly/YT6Ij </x:t>
+  </x:si>
+  <x:si>
+    <x:t>"the turnover of fashionable ex's &amp; about-to-be-ex's w/ soon-to-be-mates was dizzying" Read my '71 piece on Elaine's http://bit.ly/1tKnuY7 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Earth-Tone Handbag w/ Pewter Metal Frame is calling your name! TheAccidentalBagLady http://etsy.me/1MPkr88  pic.twitter.com/h1F330btWC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Great to see the Voice staffing up again.My ex-the late DonForst loved his years @villagevoice.Hope the title design doesnt get banned.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I have enough matchbooks left fr/years of collecting in case of blackouts. A drink stirrer collection too https://twitter.com/willemharvey/status/703322359831334913 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alfred Portale focusing on cooking Italian will surely bring me there. Need pals to join. https://twitter.com/GothamBar_Grill/status/703627123676876800 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not to be rude but HighSt came to Hudson so I don't need to go to Philley right now. https://twitter.com/PhillyCook/status/703659372015185920 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If it's not too late for me,not 2 late for you.Delicious flights of fancy @Wildair http://bit.ly/21DfOaF  radish pic.twitter.com/nbmbkzeTYx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I'm the last to get to Wildair but just in time. Read my new BITE http://bit.ly/21DfOaF  uni w/crusty potato pie. pic.twitter.com/0lLnZ3Z2DX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pucci lacks vroom.Moschino is absurdist.Where did the trousers go? Friedman asks Mrs. Prada.I guess it all adds up.Not sure why I read this.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Times VanessaFriedman asks "Are we burning down our house? In the midst of fashion month,it's a legitimate question. http://goo.gl/yvJf0W </x:t>
   </x:si>
   <x:si>
     <x:t>ruthreichl</x:t>
   </x:si>
   <x:si>
-    <x:t>5,097</x:t>
+    <x:t>Writer. Eater. Cook. Former Gourmet editor.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.10 years</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,100</x:t>
   </x:si>
   <x:si>
     <x:t>200</x:t>
   </x:si>
   <x:si>
-    <x:t>648K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>649K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Chili by @NancySilverton and @ruthreichl rated best in history @Mariobatali @dominiquecrenn 
+http://www.krikorianwrites.com/blog/2016/2/28/ruth-reichl-and-nancy-silverton-stumble-onto-greatest-chili-in-history … pic.twitter.com/ATT4wZ99bg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Near Seattle on Saturday? Come see me and other authors at the Kings Country Library System’s Literary Lions Gala.
+https://kclsfoundation.ejoinme.org/llg2016 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>What they were eating in London, circa 1750:
+http://ruthreichl.com/2016/03/they-ate-well.html/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sitting in sunshine. Birds singing. Fountain burbling. Scent of jasmine in the air. Fingers sticky from the final chicken wing. Happy in LA.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>What we ate while watching the Oscars.  A bunch of recipes - and where to get the best burritos I've ever eaten.
+http://ruthreichl.com/2016/02/what-we-ate-while-watching-the-oscars.html/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Me too! https://twitter.com/francis_lam/status/703801899665981440 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT So excited to hear @ruthreichl &amp; @Nancy_Pearl Sat. Mar. 5th @ #litlions2016 Tickets still available: https://kclsfoundation.ejoinme.org/llg2016 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>A new (to me) herb that I can no longer live without:
+http://ruthreichl.com/2016/02/things-i-love-fragrant-green-slightly-bitter.html/ … pic.twitter.com/WeOYAjp3ql</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Great book! https://twitter.com/ruhlman/status/702943354535936000 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sad news: Meredith is closing More.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tranquil LA morning. Sun shining. Fountain burbling. Iris blooming. Hummingbirds whirring. Peeling kishus, scent fills the air. Happy.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Another fascinating vintage cookbook:
+http://ruthreichl.com/2016/02/and-now-a-word-from-the-mystery-chef.html/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Right back at you! An honor. (And a great read.) https://twitter.com/taraobrady/status/702867401285701632 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This doughnut was so light it floated into my mouth, whispered delicious flavor - and then vanished. 
+http://ruthreichl.com/2016/02/la-breakfast.html/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breakfast pizza, Jon and Vinny's. Perfect LA morning. pic.twitter.com/jb67CF0sBX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>What are you doing on March 5th? Come see me - and a bunch of great authors - at the King's County Literary Gala.
+https://kclsfoundation.ejoinme.org/llg2016 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Is this America's most overlooked regional cuisine?
+http://ruthreichl.com/2016/02/pancake-soup.html/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This looks fantastic. Thanks! https://twitter.com/bburikitchen/status/701940416707362816 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Been dreaming about this dish all day, remembering the flavor, wondering how soon I can have it again.
+http://ruthreichl.com/2016/02/cant-stop-thinking-about.html/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO delicious! Ganjang Gaejang at Soban in LA. Raw marinated crab. Heaps of gorgeous roe. Fabulous finger food. pic.twitter.com/65J7KXxz2f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>max_fisher</x:t>
   </x:si>
   <x:si>
     <x:t>Max Fisher</x:t>
   </x:si>
   <x:si>
-    <x:t>1,046</x:t>
-  </x:si>
-  <x:si>
-    <x:t>778</x:t>
+    <x:t>Foreign Editor at @VoxDotCom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.34 years</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>777</x:t>
   </x:si>
   <x:si>
     <x:t>73.7K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>“this novel about a presidential primary gone awry is good, but a bit on the nose and unbelievable at points"  https://twitter.com/alexis_levinson/status/702373081462009858 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>glad to hear Washington’s Worst Idea not getting any traction https://twitter.com/lrozen/status/704750589780037632 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is all to say — Dugin endorsing Trump says lots (and nothing good) about Trump, but says nothing about Putin, write-ups to the contrary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duginists I spoke to in Moscow consider Putin a traitor to the cause and blame him for Dugin getting fired from Moscow State Univ in 2014.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aleksandr Dugin is loathsome, but both he and his “Eurasianist” ideology have been on the outs in Moscow for some time. No Putin ally.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>How Iran's election could make history http://www.vox.com/2016/2/11/10950848/iran-elections-supreme-leader?utm_campaign=vox&amp;utm_content=feature%3Atop&amp;utm_medium=social&amp;utm_source=twitter … via @voxdotcom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I don’t really understand what this UN list is, but I’m not it, so I guess that’s nice? http://unfoundationblog.org/the-abcs-of-global-influencers-to-follow-in-2016/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Great closing paragraphs from @Max_Fisher on the existence of Iranian politics and why DC needs to wake up to them. http://www.vox.com/2016/3/1/11139970/iran-elections …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Editorial in @FT calls Iran election result "fruits of Vienna pact" http://www.ft.com/intl/cms/s/0/7980648c-dee5-11e5-b67f-a61732c1d025.html#axzz41fyuVfpV … pic.twitter.com/nVRShxrxdD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT The Ayaan Hirsi Ali problem: why do anti-Islam Muslims keep getting promoted as "experts"? http://www.vox.com/2016/3/1/11139272/muslim-pseudo-experts?utm_campaign=vox&amp;utm_content=chorus&amp;utm_medium=social&amp;utm_source=twitter …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>It's time to acknowledge that Iran's internal politics matter http://www.vox.com/2016/3/1/11139970/iran-elections …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT 4 reasons Iran's election is a bigger deal than you think http://www.vox.com/2016/3/1/11139970/iran-elections?utm_campaign=vox&amp;utm_content=chorus&amp;utm_medium=social&amp;utm_source=twitter … pic.twitter.com/m4FheeDwM9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Great #longread by @amandataub on authoritarian tendencies &amp; support for Trump (plus new polling data!): 
+http://www.vox.com/2016/3/1/11127424/trump-authoritarianism …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Attacks by PA security officers: implications for Israel-PA security coordination. My thoughts in @ForeignAffairs https://www.foreignaffairs.com/articles/israel/2016-02-28/palestine-brink# …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT key demand of Syria rebels is aid start reaching besieged areas ahead of March 7 talks. Seems to be happening.     http://www.undispatch.com/cautious-optimism-syria-edition/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT EXCLUSIVE: Iran's Human Rights chief tells me #Iran will revise death penalty law -- cutting high execution rate: http://cnn.it/1UuHc8Y </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Today is pub date for my book, "DARK TERRITORY: The Secret History of Cyber War." http://amzn.to/1oMbrfh </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Is a popular desire for authoritarianism the key to Trump's rise? Interesting Vox piece by @amandataub http://www.vox.com/2016/3/1/11127424/trump-authoritarianism …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>One of the joys of being an editor rather than a writer is that you can be even more shameless in promoting things you worked on.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Most pundits were blindsided by the Trump phenomenon, but a few political scientists saw it coming. http://www.vox.com/2016/3/1/11127424/trump-authoritarianism …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>davidgrann</x:t>
   </x:si>
   <x:si>
     <x:t>David Grann</x:t>
   </x:si>
   <x:si>
+    <x:t>Staff Writer @NewYorker. Author The Lost City of Z and The Devil and Sherlock Holmes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.79 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>12.9K</x:t>
   </x:si>
   <x:si>
@@ -193,12 +938,72 @@
     <x:t>34.2K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>Hamas Commander, Accused of Theft and Gay Sex, Is Killed by His Own http://nyti.ms/1SeQnK5 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>John Oliver Finally Takes On Trump's Fragile Ego, Lawsuits And Lack Of Policy (VIDEO) @TPM http://talkingpointsmemo.com/livewire/john-oliver-donald-trump-presidential-campaign …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oscar Winners 2016: The Complete List http://nyti.ms/214UKry </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meg Whitman Assails Chris Christie for Backing Donald Trump: "For some of us, principle and country still matter.” http://www.nytimes.com/politics/first-draft/2016/02/28/meg-whitman-assails-chris-christie-for-backing-donald-trump/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT We have reached the singularity wherein Bloomberg copy reads as savage satire of this age. http://www.bloomberg.com/politics/trackers/2016-02-28/trump-defends-quoting-mussolini-evades-disavowing-kkk … pic.twitter.com/XgpvaGejEr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Me too RT @bruce_arthur: Can't stop watching https://twitter.com/r0bato/status/703945701487677440 …”</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hillary Clinton, ‘Smart Power’ and a Dictator’s Fall http://nyti.ms/21rtwB3 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>With All Eyes On Trump, Clinton Is Winning The Democratic Nomination http://53eig.ht/1QOK1lr </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Chris Hughes sells New Republic to liberal publisher Win McCormack http://on.wsj.com/21nhF6R </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senator Graham: “If you kill Ted Cruz on" the Senate floor &amp; "trial was in the Senate, nobody could convict you.” https://politicalwire.com/2016/02/26/graham-mocks-the-gop-presidential-race/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A losing politician is a dangerous thing.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trump is the GOP’s Frankenstein monster. Now he’s strong enough to destroy the party. http://wpo.st/mdbF1 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>A smart piece on why the G.O.P. isn't trying harder to beat Donald Trump, allowing him to waltz to the nomination http://www.newyorker.com/news/benjamin-wallace-wells/bet-on-donald-trump …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trump intimidates GOP mega-donors, who now shy away from fight with him. Which may mean the GOP race is over: http://www.politico.com/story/2016/02/donald-trump-megadonors-219690 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lost tapes reveal Apollo 10 astronauts claimed to hear strange music at the moon http://www.huffingtonpost.com/entry/apollo-10-astronauts-reported-unexplained-music-at-moon_us_56c80662e4b0928f5a6c0679 …  thx @brianbeutler</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seas Are Rising at Fastest Rate in Last 28 Centuries http://nyti.ms/1mTrPJF </x:t>
+  </x:si>
+  <x:si>
+    <x:t>How Jeb Bush Spent $130 Million Running for President With Nothing to Show for It http://nyti.ms/219XhWT </x:t>
+  </x:si>
+  <x:si>
+    <x:t>How one family's drug trafficking, kidnapping, and murder charges turned a Texas teacher fugitive: https://news.vice.com/article/how-one-familys-drug-trafficking-kidnapping-and-murder-charges-turned-a-texas-teacher-fugitive …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A very timely @retroreport: How the legacy of Bush v. Gore will impact the coming presidential election. http://www.retroreport.org/#.VssBz1B_qxM.twitter …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>annaholmes</x:t>
   </x:si>
   <x:si>
     <x:t>Anna Holmes</x:t>
   </x:si>
   <x:si>
+    <x:t>Instagram: @annaholmes. Formerly @jezebel, now @thisisfusion &amp; @nytimesbooks. March avatar: big hair.</x:t>
+  </x:si>
+  <x:si>
     <x:t>42.9K</x:t>
   </x:si>
   <x:si>
@@ -208,27 +1013,158 @@
     <x:t>30.4K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>RT Donald Trump and the Central Park Five: Your Super Tuesday reminder of who he has always been. http://www.newyorker.com/news/amy-davidson/donald-trump-and-the-central-park-five …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Big big congrats to @rtraister, whose fantastic and very important new book, “All the Single Ladies,” is out today. 
+http://www.amazon.com/All-Single-Ladies-Unmarried-Independent/dp/1476716560 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Shorter this piece: "If you ignore black people, then Clinton actually lost South Carolina." http://www.huffingtonpost.com/seth-abramson/5-ways-the-media-is-grave_b_9340218.html …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Celebrate the end of the longest month by planning to attend our March events @lsjamison @rtraister @AnnaHolmes http://conta.cc/24fM9qg </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mad Max.  https://twitter.com/suzisteffen/status/704170055085363200 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Great movie. But, IMO, not the greatest of the bunch.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Whut?
+Fact check, please.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT This would be fun to see. #Oscars pic.twitter.com/zH91ihNxVH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT .@realDonaldTrump a Mexican won the Oscar for best director. For the second year in a row.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Does he know he is speaking to an industry that for the most part stands behind Roman Polanski?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Half-assed Asian joke, #Oscars, and then preach about diversity? #LoseMe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT THE ONLY ASIANS AT THE #OSCARS THIS YEAR WERE KIDS WHO WERE ACCOUNTANTS AND WHO BUILT IPHONES IN SLAVE CONDITIONS THANK YOU ACADEMY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>what https://twitter.com/thrashradical/status/704145602511122432 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>what https://twitter.com/Notorious_Nava/status/704129140375425024 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I'm 25% joking  https://twitter.com/colbyhall/status/704122540864741376 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oh god the Bernie Bros have invaded the Oscars.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I love Chris Rock.
+Just...not tonight.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Idea: Montage of white people reacting to Chris Rock.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nycjim</x:t>
   </x:si>
   <x:si>
     <x:t>Jim Roberts</x:t>
   </x:si>
   <x:si>
+    <x:t>Executive editor &amp; chief content officer of @Mashable; full-time student of the news, lover of social media &amp; long-time follower of the Grateful Dead.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.76 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>83.7K</x:t>
   </x:si>
   <x:si>
-    <x:t>1,804</x:t>
+    <x:t>1,805</x:t>
   </x:si>
   <x:si>
     <x:t>174K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>Ecstasy overdose caused death of UCLA student who went to rave at county fairgrounds. http://fw.to/4QGRSsT </x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOP melting down: Paul Ryan blasts Trump, saying he must reject “bigotry" after KKK flap. http://mashable.com/2016/03/01/paul-ryan-donald-trump-kkk/#YZTAP9yQFiqR … pic.twitter.com/wq1HFVWGMc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The one-eyed aviation hero who  developed the 1st pressurized spacesuit. Great story. http://mashable.com/2016/03/01/wiley-post/#dEjUmz7NGkqY … pic.twitter.com/QpH6k7A4TL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT At least we're being honest here. https://twitter.com/mediaite/status/704714617969319936 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT LA Times reporters almost couldn't cover Oscars b/c Tribune execs took their tix. @kdoctor http://politi.co/1SeSQnS  pic.twitter.com/YrpZ0nQocg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT I wrote about the hypocrisy of @NASCAR, which is on full display with its endorsement of Trump. http://thinkprogress.org/sports/2016/03/01/3755041/nascar-endorses-trump/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sacha Baron Cohen was supposed to present at the #Oscars. But instead, Ali G showed up. http://mashable.com/2016/03/01/oscars-ali-g/#ahmbj8C198qQ … pic.twitter.com/lpWfqfABfS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stones update: Charlie, Keith, Mick and Ronnie will perform free concert in Cuba, March 25. http://www.rollingstones.com/2016/03/01/the-rolling-stones-announce-free-concert-in-cuba/ … pic.twitter.com/5CMo0q3rgL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thanks for the Stones update.  https://twitter.com/mweissenstein/status/704686101567578112 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stones reportedly to perform for 1st time in Cuba. And yes, they’re all younger than Fidel. http://www.nme.com/news/the-rolling-stones/91934 … pic.twitter.com/HW4xDJWDHb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I think we've gone far enough now.  https://twitter.com/statnews/status/704656337876230144 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Next to the $2.6MM Bugatti Chiron,  the new $1.9MM Lamborghini Centenario is a bargain. http://mashable.com/2016/03/01/2017-lamborghini-centenario/?utm_cid=hp-hh-pri#_ … pic.twitter.com/KconeEAlSr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Bill still has some sense - http://www.nytimes.com/2016/03/01/us/politics/hillary-clinton-donald-trump-general-election.html?smprod=nytcore-iphone&amp;smid=nytcore-iphone-share … pic.twitter.com/kdYrp9uLNn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ah, the world we live in. pic.twitter.com/0wv6Bqzheb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NBA star Jeremy Lin says he’s "tired of it being cool" to bash Asians after  #Oscars joke.  http://www.scmp.com/sport/other-sport/article/1919022/jeremy-lin-says-hes-tired-it-being-cool-bash-asians-he-slams?utm_source=&amp;utm_medium=&amp;utm_campaign=SCMPSocialNewsfeed … pic.twitter.com/UpIn8Pl0im</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The “real" Mad Max died just before "Fury Road" won six Oscars.  http://mashable.com/2016/02/29/mad-max-aspin/#k6IfDjnU805I … pic.twitter.com/ujmTOGVfSm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Interesting bit of history: In 1927, Trump's father was arrested after a Klan riot in NYC. http://wpo.st/RQPH1  pic.twitter.com/y6Ro3ibqh3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT It's come to this: Republicans are attacking their last presidential nominee for being against the KKK pic.twitter.com/QP7M0YIBGQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Tomorrow's front page:
+SIGN OF THE APOCALYPSE: Trump poised to dominate Super Doomsday 
+http://nydn.us/1WSKrFN  pic.twitter.com/UynHnGxO3W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On Maddow, Rep. Tulsi Gabbard, ex-DNC vice-chair, delivers strong condemnation of Hillary Clinton on Libya, Iraq. pic.twitter.com/onowbM3rSM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weeddude</x:t>
   </x:si>
   <x:si>
     <x:t>Michael Rusch</x:t>
   </x:si>
   <x:si>
+    <x:t>Global News Curation Director for @BuzzFeed and @BuzzFeedNews — @TIME's 140 Best Twitter Feeds of 2013 — 'Connoisseur' of the edge — weeddude@buzzfeed.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.56 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>127K</x:t>
   </x:si>
   <x:si>
@@ -238,12 +1174,78 @@
     <x:t>24.7K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>late night twitter will always be the best twitter — its where the true freaks hangout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>i've spent most of my day not on social media and i kind of feel strange and dirty about it</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oh, just writing work emails at 1:39 am in the morning pic.twitter.com/FoFt4Dnom6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Going mobile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Cruz https://twitter.com/tedcruz/status/703990847893696512 … and Rubio https://twitter.com/marcorubio/status/704015546849820673 … have both denounced Trump for not disavowing KKK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Folks worked up out about Gawker's fake Mussolini account set up to, as they said, "trap" Trump. He RT'd. And...that proves what new point?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @big_ben_clock: BONG BONG BONG BONG BONG BONG BONG BONG BONG BONG BONG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Here's what's going on with the South Carolina Democratic primary, which Hillary Clinton just won http://www.buzzfeed.com/buzzfeednews/south-carolina-democratic-primary-winner?utm_term=.whPZk5m6Qn …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Follow @BuzzFeedNews' @rubycramer and @darrensands who are on ground in South Carolina for the South Carolina Democratic Primary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>i have spent the last 2 hours watching videos on the new @BuzzFeedVideo app — love it</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @TheRyanParker: Donald Trump: “Maybe I’ll start shopping permanently at Wal-Mart if we win Arkansas.” pic.twitter.com/xKeoXC9cPL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT It’s three days until Super Tuesday and Donald Trump is spending the largest portion of his stump speech talking about Rubio sweating</x:t>
+  </x:si>
+  <x:si>
+    <x:t> RT @toddgillman: “Donald Trump likes to sue people. He should sue whoever did that to his face,” @MarcoRubio says of Trump’s spray tan.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@NYDailyNews front page tomorrow pic.twitter.com/K20jLyLdex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yoko Ono was hospitalized Friday evening after suffering a possible stroke, sources told @CBSNewYork http://www.cbsnews.com/news/yoko-ono-hospitalized-after-possible-stroke/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT For the past few weeks, I've noticed how MSNBC has sidelined @MHarrisPerry. Now @koblin has the stunning backstory: http://www.nytimes.com/2016/02/27/business/media/melissa-harris-perry-walks-off-her-msnbc-show-after-pre-emptions.html …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omg! RT @Adampasick: We live in strange times.` pic.twitter.com/GwQpoXwcyt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is all kind of wild RT @WordsOfSarah: What Trump thinks Rubio does with water bottles pic.twitter.com/Ua9LHuf4RM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT just now @marcorubio on @realdonaldtrump: "He's a con man. We're going to unmask him. He's not going to be nominee. GOP would come apart"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Rubio on Trump: “We cannot allow the party of Reagan to be taken over by a con man” says “party would be split apart” if Trump wins</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cschweitz</x:t>
   </x:si>
   <x:si>
     <x:t>Callie Schweitzer</x:t>
   </x:si>
   <x:si>
+    <x:t>Editorial Director of Audience Strategy @TIME, @lifemotto and @TimeInc. Former lives @VoxMediaInc, @TPM. Love news, tech &amp; @DietCoke callie@callieschweitzer.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.02 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>66.7K</x:t>
   </x:si>
   <x:si>
@@ -253,40 +1255,245 @@
     <x:t>61K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>“There are extraordinary measures that need to be taken for a military woman who’s a mother to succeed” http://j.mp/1LtYpgO </x:t>
+  </x:si>
+  <x:si>
+    <x:t>'Legends of the Hidden Temple' to come back as live-action Nickelodeon TV movie http://j.mp/1XY1esm </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hillary Clinton, Bernie Sanders could easily top Donald Trump, according to a new poll  http://j.mp/1TOs1H9 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marine veteran: Drafting women is key to ending gender discrimination http://j.mp/1oLZg21 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women entrepreneurs are 'more ambitious' and 'more successful' than men, study says   http://j.mp/1OK9ZPI </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Watch the moving acceptance speech from the first black actress to win an Oscar  http://j.mp/1QHB8nA </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Awesome: Watch Morgan Freeman go for a Girl Scout cookie at the Oscars http://j.mp/1ndEC9M </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Totally needed this today: Here's a photo of a dog with braces goofily smiling http://j.mp/1Qo4qvC </x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@TIME responds to confrontation with Secret Service at Trump event http://j.mp/1KZqUD4 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Worth your time --&gt; Watch Ben Affleck sneakily smuggle Matt Damon onto Jimmy Kimmel Live! http://j.mp/1oJT5eE </x:t>
+  </x:si>
+  <x:si>
+    <x:t>“Robert De Niro has never said, 'I’ve got to slow this acting down so Meryl Street can catch up'” http://j.mp/1XVBe0P </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT RT: Check out my article in @TIME how "It's important for women to be likable and aggressive"  https://twitter.com/TIME/status/701797376869146625 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kylie Jenner battles Kylie Minogue for name trademark http://j.mp/1TKXBW2 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>“Single women are taking up space in a world that was not designed for them.” http://j.mp/1oQJx2c </x:t>
+  </x:si>
+  <x:si>
+    <x:t>How @timeinc is reaching millennial women http://j.mp/1nbr9iP </x:t>
+  </x:si>
+  <x:si>
+    <x:t>“Do you accept Apple Pay for the Girl Scout cookies?” #oscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@violadavis: "I could show people that I could do just as well as any one of my Caucasian counterparts” http://j.mp/1RyC0Ou  #oscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The 10 most scathing jokes from Chris Rock’s Oscars monologue  http://j.mp/1TgEXXN </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Read the full text of Chris Rock's Oscars monologue http://j.mp/1QeBchy  pic.twitter.com/o4ILHAD0Yt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I keep trying to fast forward my TV and then I realize I’m watching live. #Oscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jbarro</x:t>
   </x:si>
   <x:si>
     <x:t>Josh Barro</x:t>
   </x:si>
   <x:si>
+    <x:t>Now NYT, soon to be Senior Editor at Business Insider. MSNBC contributor. Host of KCRW's Left, Right &amp; Center. josh.barro@nytimes.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.47 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>77.8K</x:t>
   </x:si>
   <x:si>
-    <x:t>1,858</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83.4K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>1,857</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83.5K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Say what you will about Rubio, he's done an excellent job managing expectations for today's primaries.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT McConnell doesn't deny comment about dropping Trump like a hot rock:
+"I don't remember saying anything like that to all of you."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT September 17, 2015 https://twitter.com/NateSilver538/status/644555290126491649 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Way We Live Now: Donald Trump is for real and Bill Kristol is performance art.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT September 16, 2015 https://twitter.com/BillKristol/status/644358585791741952 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>At this point, it's almost mean to quote Bill Kristol's past statements. https://twitter.com/chrislhayes/status/704722729019133952 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trump is a businessman but not an Ayn Rand character. He made his money hand-in-hand with govt, doesn't hate it. http://www.nytimes.com/2015/09/20/upshot/donald-trump-and-the-art-of-the-public-sector-deal.html …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rubio's "This is a Republican debate, right?" was meant as a dig at Trump, but actually showed how Rubio is out of touch with GOP voters.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>So of course the party was vulnerable for a candidate who hit all the same anti-Obama notes and discarded the party's policy ideas.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>And that's the thing: GOP had voters on board for anti-Obama agenda. The let-people-die-in-the-streets agenda was never a big seller.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The defining moment of this campaign was Rubio and Cruz expressing horror at Trump's pledge not to let people die in the streets.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT NYT still making more money than Trump's casinos ever did.  https://twitter.com/lpolgreen/status/704528517569122304 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOP establishment still thinks its product is fine and the error lies with the customer base that won't buy it.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT ok. http://thedailybeast.com/articles/2016/02/29/jesse-ventura-i-ll-run-for-president-if-bernie-loses.html … pic.twitter.com/Q7iNc3DFA8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>As goes Vermont, so goes Maine. https://twitter.com/DanielStrauss4/status/704711383988961281 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cc: @dandrezner  https://twitter.com/DanielLarison/status/704710354660491265 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Seen outside polling place in Houston. Cruz will vote here shortly pic.twitter.com/AJAqJwVVu1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Put another way, it's not a "civil war" if millions of GOP voters choose Trump &amp; a dozen lite-right op-ed writers sigh loudly about it.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Now that the GOP has embraced racial glasnost to repudiate Trump, a Voting Rights Act fix must be in the works, yes? Hello? Can you hear me?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Republicans are gonna consolidate behind Rubio any day now. He's just two or three penis jokes away from victory. https://twitter.com/mattyglesias/status/704703988218908674 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nickconfessore</x:t>
   </x:si>
   <x:si>
     <x:t>Nick Confessore</x:t>
   </x:si>
   <x:si>
+    <x:t>Political reporter for The New York Times. Sitting in the bleachers, watching the man in the arena. Retweets = death threats.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.00 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>32.4K</x:t>
   </x:si>
   <x:si>
-    <x:t>1,061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>1,060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Who told Lou? https://twitter.com/cjciaramella/status/704739595938824193 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT WED: I'm not attacking Trump
+THU: lol no actually I am
+FRI: he's a con man
+SAT: pees his pants
+SUN: tiny dong
+MON: but let's get serious</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unbelievable. https://twitter.com/peterlattman/status/704672252072169472 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Union-Leader apologizes for endorsing Christie; says he promised he wouldn't endorse Trump. http://www.unionleader.com/An-Editorial-Joseph-W-McQuaid-Publisher-Christie-was-our-bad-choice … pic.twitter.com/bxn0odSRjT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@ggreenwald Why do you think this is some kind of unified Times strategy instead of just someone blabbing? https://twitter.com/devingo913/status/704668982192824321 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Didn't work in the primary. Maybe in the general? http://www.nytimes.com/2016/03/01/us/politics/hillary-clinton-donald-trump-general-election.html?smprod=nytcore-iphone&amp;smid=nytcore-iphone-share … pic.twitter.com/rih5OndZKX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Clinton plan to beat Trump: portray him as misogynist &amp; enemy of working class. Via @amychozick &amp; @patrickhealynyt  http://www.nytimes.com/2016/03/01/us/politics/hillary-clinton-donald-trump-general-election.html …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If Trump locks nomination, do Senate Republicans negotiate on SCOTUS? Or take chances w/November?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I thought Festivus only came once a year. https://twitter.com/nahmias/status/704471478448869376 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Netflix and scarf a bag of pirates booty at your desk.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @nickconfessore next debate is on FOX as was 1st. If they don't start with same question, ... lol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I mean party loyalty is not a suicide pact but still. https://twitter.com/nickconfessore/status/704432384679215106 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OUT: GOP elites demanding Trump sign a pledge to support the nominee.
+IN: GOP elites pledging not to support Trump if he is the nominee.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If you explain, I will retweet it. https://twitter.com/marklotto/status/704424428642373632 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sanders now at $38.3m for February. http://www.nytimes.com/politics/first-draft/2016/02/29/digital-ads-for-hillary-clinton-focus-on-young-women-and-equal-pay/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pro-HRC super PACs begin spending millions to persuade young women to get more excited for her: http://www.nytimes.com/politics/first-draft/2016/02/29/digital-ads-for-hillary-clinton-focus-on-young-women-and-equal-pay/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT most damning video of the Secret Service agent's assault on photographer Chris Morris https://www.instagram.com/p/BCYYkMim_BA/ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Really excited to read those transcripts BuzzFeed is going to release of off-record conversations their reporters have with politicians.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @nickconfessore The agent identified himself as with Secret Service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Correction: Some reports now, from people who know, that the pin in question was a SS anniversary pin, so guy in video may have been SS.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rameshponnuru</x:t>
   </x:si>
   <x:si>
     <x:t>Ramesh Ponnuru</x:t>
   </x:si>
   <x:si>
-    <x:t>15.8K</x:t>
+    <x:t>National Review senior editor, Bloomberg View columnist, AEI Visiting Fellow. Husband of @aprilponnuru. Prez-campaign disclosure: http://www.nationalreview.com/corner/414464/full-disclosure-ramesh-ponnuru …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.77 years</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.9K</x:t>
   </x:si>
   <x:si>
     <x:t>559</x:t>
@@ -295,27 +1502,160 @@
     <x:t>35.5K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>RT 1) Misspelled her name. 
+2) She's one of the most popular governors in America. Fav ratings much higher than yours! https://twitter.com/realDonaldTrump/status/704747986446913541 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Debbie Wasserman Schultz is attempting to insulate payday lenders from new CFPB regs and liberals are not happy http://www.huffingtonpost.com/entry/debbie-wasserman-schultz-paylenders-cfpb_us_56d4ce38e4b03260bf77e8fc …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Total Ben Carson Super Tuesday TV spending: Not a penny. http://morningconsult.com/briefs/campaigns-brief-super-tuesday/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT "I think Bernie's challenge was a positive thing." -- Barbara Boxer, already speaking of Bernie in the past tense.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gosh, who to believe, Christie or McQuaid? http://www.nationalreview.com/corner/432150/chris-christies-bad-memory …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Trump v. Clinton: He gets 57% of white voters, 15% of non-whites. Rubio gets 61% of white voters, 27% of non-whites. http://i2.cdn.turner.com/cnn/2016/images/02/29/rel4b.-.2016.general.pdf …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT My latest @FDRLST: Team Trump admits his China tariffs wld hurt most Americans, esp the poor, to subsidize a few http://thefederalist.com/2016/03/01/endorser-agrees-trump-policies-will-benefit-rich-at-expense-of-poor-and-middle-class/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT This is political malpractice: percentage of Rs who have heard of various Trump stories 1/2 https://pbs.twimg.com/media/CcbYP1OXIAAG06Q.jpg …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Amazing little detail in this Spiegel profile of Donald Trump. http://m.spiegel.de/international/world/a-1075060.html … pic.twitter.com/Ew4DRz8TkE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In CNN around 4:15 Eastern.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Trump said he'll open up the 9/11 commission papers that are secret so people can know who "really" knocked down WTC http://www.nytimes.com/2016/03/01/us/politics/donald-trump-conspiracy-theories.html?_r=0 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT The man is honest. https://twitter.com/Mediaite/status/704336492328591361 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT .@BuzzFeedBen suggests Trump told NYT off-record that wall/deport talk is opening gambit for negotiation http://www.buzzfeed.com/bensmith/trump-tape …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT CNN/ORC: 43% of adults are probably Republican primary voters, right? Let's pretend they are. pic.twitter.com/LGCy06PEeA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @RameshPonnuru Okay! Let's end this on a note of agreement!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>It's a minor point. But @HeerJeet should get his facts right before taking shots, and correct when, as we all do, he errs.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT "The Rubio family has come a long way from the days when their largest monthly expense was a check to Sallie Mae " https://marcorubio.com/news/marco-rubio-tax-returns/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Mark Shields and @RameshPonnuru talk Christie’s Trump endorsement and analyze the GOP debate http://to.pbs.org/1LjJ6af </x:t>
+  </x:si>
+  <x:si>
+    <x:t>About the health-care component of last night's debate: http://bloombergview.com/articles/2016-02-26/rubio-shows-republicans-a-way-out-of-obamacare …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I'll be on @newshour around 6:20 pm Eastern, talking about the week in politics.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thegarance</x:t>
   </x:si>
   <x:si>
     <x:t>Garance Franke-Ruta</x:t>
   </x:si>
   <x:si>
+    <x:t>Editor in Chief, @YahooPolitics, a @YahooNews production. Politics, media, breaking.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.59 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>61.8K</x:t>
   </x:si>
   <x:si>
-    <x:t>5,554</x:t>
+    <x:t>5,557</x:t>
   </x:si>
   <x:si>
     <x:t>47.5K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>RT “I voted for Hillary by voting for Trump” http://wapo.st/1QIYw4d </x:t>
+  </x:si>
+  <x:si>
+    <x:t>From gifted hands to small hands: The year politics went mano-a-mano</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT .@realDonaldTrump’s reply to @marcorubio saying he has small hands https://vine.co/v/ig6bDl59wOF </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Glad to see the ballot taken so seriously https://www.washingtonpost.com/news/post-politics/wp/2016/03/01/liberals-explain-why-theyre-strategically-voting-as-republicans/?1 … pic.twitter.com/A7QxbJ0SGK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT McConnell weighs in on Trump/KKK - very rare for him to do. "Senate Republicans condemn David Duke, the KKK and his racism."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Socialism: Rolling Stones to give free concert in Cuba.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT It is possible after tonight that we need both Cruz and Rubio to stay in to ensure a brokered convention.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Show us what "New York values" means to you! Tag a photo/video with #MyNewYorkValues. http://www.wnyc.org/story/new-york-values-vision-board/ … pic.twitter.com/TxP75F9BQf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trumpmania: People dressed like Trump at Trump rallies https://www.yahoo.com/politics/trumpmania-181254916/photo-trump-buttons-1456856277984.html?soc_src=social-sh&amp;soc_trk=tw … via @YahooPolitics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT .@BernieSanders said a #serviceyear could help tackle youth unemployment &amp; #studentdebt #stand4service #SuperTuesday pic.twitter.com/4FZaAov9z0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT It's expensive to be poor, datapoint one million and one https://twitter.com/lizzieohreally/status/704712837919166468 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT agree with this. don't blame Obama tho. inevitable product of decades of TV culture http://www.nytimes.com/2016/02/28/opinion/sunday/from-obama-to-trump.html?_r=0 … @mattbai pic.twitter.com/cj4LQ5RALX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sanders's attack on campaigns financed by special interests amplifies &amp; benefits the Trump message of self-funded independence. Discuss.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Donald Trump Is "Greatest Present Threat To American Democracy": Larry Summers http://www.zerohedge.com/news/2016-03-01/donald-trump-greatest-present-threat-american-democracy-larry-summers …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT This gentleman designed anti-Trump swastika sign and is warning that Hitler rose to power through dem process too. pic.twitter.com/X9MHxW1cF7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Totals from the Arkansas early vote, which ended yesterday. Polls open today til 7:30pm Central. https://twitter.com/arsecofstate/status/704666046565756928 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Bernie's next day stop after Super Tuesday: Maine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Welp &gt;&gt; Carlson, Ingraham Label Romney A Liberal For Condemning Trump On KKK @TPM http://talkingpointsmemo.com/livewire/tucker-carlson-laura-ingraham-romney-kkk …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT apparently @Trevornoah wants more diverse writers for @TheDailyShow, send in a resume or do with that what you will pic.twitter.com/wakt0aOYeB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT VP of Facebook Brazil imprisoned as a sanction for not turning over WhatsApp messages http://politica.estadao.com.br/blogs/fausto-macedo/vice-presidente-do-facebook-brasil-e-preso-no-aeroporto-de-guarulhos/ … HT @javierpallero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mattyglesias</x:t>
   </x:si>
   <x:si>
     <x:t>Matthew Yglesias</x:t>
   </x:si>
   <x:si>
+    <x:t>Dad. Voxxer.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.63 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>103K</x:t>
   </x:si>
   <x:si>
@@ -325,27 +1665,163 @@
     <x:t>162K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>Seasoned Republican politicians spend years learning how to thread the needle on questions about racism.  https://twitter.com/toddzwillich/status/704743620826505217 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Of course with Trump you have to worry about something like a world-wide financial crisis, whereas um...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trump or the sober establishment that responded to a terror attack by invading the wrong country and letting the perpetrator get away?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>It's especially challenging because the architects of that invasion are the most vehemently anti-trump faction.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hard for the GOP establishment to argue the need for a steady hand at the helm when their last guy invaded a country for no reason.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Hot take: Nazism was worse than gridlock and hearings http://bit.ly/1UwNEfD </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voting for Marco Rubio because you doubt the strength of Trump's anti-immigration convictions would be strange.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emphasis on Florida as Rubio's must-win seems misguided to me. If he can't win in Minnesota, zero path to stopping Trump.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bigoted ex-Democrats, it seems to me.  https://twitter.com/ron_fournier/status/704712878193045508 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT This is the most useful article I've read yet on the rise of Trump. Long, but worthwhile. http://www.vox.com/2016/3/1/11127424/trump-authoritarianism …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Will the #nevertrump caucus in congress finally do a Voting Rights Act fix now that we’ve reached consensus against racism?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 months? Try four years. It's Trump's party until they nominate someone else. https://twitter.com/richlowry/status/704715746656526336 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Good @RichLowry piece on why conservatives elites need Trump more than Trump needs them. http://www.nationalreview.com/article/228626/sarah-palins-roguish-charm-rich-lowry … pic.twitter.com/uayhUh8Isz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT What time is Super Tuesday? http://www.vox.com/2016/3/1/11135770/super-tuesday-states-polls-results-2016 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Make America Great Again! https://twitter.com/ritholtz/status/704693680762953728 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Conservatives can’t get over this idea of arguing that the problem with Trump is he’s not extreme enough.  https://twitter.com/JimPethokoukis/status/704711618328993792 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bernie Sanders’ association with Ben Folds is discrediting, imho.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>History’s greatest to be sure graf http://www.vox.com/2016/3/1/11139430/ft-letter-trump … pic.twitter.com/Nv9XOlxlrX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT You'll read a lot about politics today. It'll mostly be garbage. Read about @dansinker and @MayorEmanuel instead. http://www.vox.com/2016/3/1/11132626/mayor-emanuel-twitter …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>takes this hot can level cities  https://twitter.com/lhfang/status/704703278831915008 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buzzfeedandrew</x:t>
   </x:si>
   <x:si>
     <x:t>andrew kaczynski</x:t>
   </x:si>
   <x:si>
+    <x:t>Boss at @BuzzFeed Politics' KFILE. I also like cats. Email me at Andrew@BuzzFeed.com. Once challenged to a duel and called an idiot by Rand Paul.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.67 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>106K</x:t>
   </x:si>
   <x:si>
-    <x:t>2,909</x:t>
+    <x:t>2,912</x:t>
   </x:si>
   <x:si>
     <x:t>138K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>Here's audio of Trump in 2002 saying to invade Iraq on the Howard Stern Show http://www.buzzfeed.com/andrewkaczynski/in-2002-donald-trump-said-he-supported-invading-iraq-on-the#.rjLpoA7Jo …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trump Once Threatened To Sue Over A Report He Owned A Book Of Hitler Speeches http://www.buzzfeed.com/andrewkaczynski/trump-once-threatened-to-sue-over-a-report-he-owned-a-book-o?utm_term=.ww7ORr6XR …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Anderson Cooper citing Buzzfeed during the Town Hall basically means that journalism is dead, right?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @callumborchers you demean yourself by citing Buzzfeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @megynkelly BuzzFeed is a viral lab, focusing on tracking viral content...not a journalist news organization but was once owned by HuffPost.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I feel like this is a metaphor  https://twitter.com/cd_hooks/status/704735501215895552 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rubio seems sad he has to joke about Trump's ding dong to get coverage.
+http://www.buzzfeed.com/buzzfeednews/live-updates-super-tuesday-is-coming-and-all-eyes-are-on-tru?utm_term=.ncdjKoxr5&amp;sub=4169159_8112926 … pic.twitter.com/Qugbieojgh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Trump just said he’s “never heard” the insult that he has small hands. The guy lies about the WEIRDEST things.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trump Jr.: my dad will bring back meritocracy
+Trump Sr.: "I like nepotism." pic.twitter.com/OfYl5aI46i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>One of my all time favorite quotes http://www.buzzfeed.com/buzzfeednews/live-updates-super-tuesday-is-coming-and-all-eyes-are-on-tru?utm_term=.fm4nre7xr&amp;sub=4169159_8107492#.qn8DNQZ0N … pic.twitter.com/e7FKCczosp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prominent Kasich Endorser Thinks Trump Will Be Nominee  http://www.buzzfeed.com/buzzfeednews/live-updates-super-tuesday-is-coming-and-all-eyes-are-on-tru?utm_term=.iy2ReYZ0e&amp;sub=4169159_8112086 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Nice tits, no brain," - guess who (Google it) 
+https://twitter.com/thbb239/status/704717119351595008 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT NEW: The odds of Michael Bloomberg running for president are “very, very low – almost zero,” source tells @jonkarl. pic.twitter.com/h9UxbF023L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT You learn a lot about conservatives from whether they are fighting Trump or trying to join his bandwagon.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Caveat I'd add to last tweet is that it's quite possible a lot of nice friendly people you meet in person are very different people online</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT This fits with my experience (mostly)  https://twitter.com/seanmdav/status/704710156463030273 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@newtgingrich could pull off real political surprise &amp; pay off his nearly-five million dollar 2012 campaign debt https://twitter.com/newtgingrich/status/704693747737632768 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>My prediction for Cruz and Rubio on Super Tuesday: Cloudy with a chance of pic.twitter.com/zrpgkOYmSO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"I didn’t even know what overalls were. I said, 'what the hell is that,'" said Trump 
+ http://www.buzzfeed.com/andrewkaczynski/donald-trump-first-encountered-overalls-in-2005?utm_term=.pvBovQpev …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trump is real life Jack Donaghy  http://www.buzzfeed.com/andrewkaczynski/donald-trump-first-encountered-overalls-in-2005#.mkNPrRY5r … pic.twitter.com/HCg9l5fOll</x:t>
+  </x:si>
+  <x:si>
+    <x:t>byronyork</x:t>
   </x:si>
   <x:si>
     <x:t>Byron York</x:t>
   </x:si>
   <x:si>
+    <x:t>Chief political correspondent, Washington Examiner, Fox News contributor, author of The Vast Left Wing Conspiracy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.71 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>28.4K</x:t>
   </x:si>
   <x:si>
@@ -355,12 +1831,80 @@
     <x:t>161K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>RT @dcexaminer: Border patrol: A wall would help http://washex.am/1QJkUKC </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hi. You're southern? Have some barbecue. Wanna talk football? From Politico, Ted Cruz's troubled SEC strategy: http://ow.ly/YWExl </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Georgetown's Randy Barnett: I have long opposed third parties. But Trump... http://ow.ly/YW3ug </x:t>
+  </x:si>
+  <x:si>
+    <x:t>On Fox, Trump discusses Rubio transformation: ‘It’s not who he is...all of a sudden he became Don Rickles.’</x:t>
+  </x:si>
+  <x:si>
+    <x:t>When Trump answered the 'secret interview' immigration question. http://ow.ly/YVuV5 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @tedcruz: What is @realDonaldTrump hiding? Tell him to #ReleaseTheTape!
+http://amp.twimg.com/v/37c0a0f3-3f7 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @SaraMurray: Brought 'em onstage in Georgia and everything. https://twitter.com/ZekeJMiller/status/704447576943304704 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New: When Trump answered the 'secret interview' immigration question. http://ow.ly/YUjtb </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT JUST IN: State Dept. to withhold two new Clinton emails containing "top secret" information
+http://washex.am/1TLUD3N  pic.twitter.com/6JavO5OqMH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Read @TPCarney on Rubio’s new personality: penis jokes and policy. http://ow.ly/YTqSG </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Justice Thomas didn't just break his 10-year silence with a single question today.  It was a on-going, in-depth discussion with counsel.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT BREAKING: Clarence Thomas breaks 10-year silence during Supreme Court arguments http://hill.cm/wcqF0hY  pic.twitter.com/jzHVglXkOo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Link: Marco Rubio and a brief theory of Trump Fatigue. http://ow.ly/YSYaJ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Just saying I'm not sure raising the disorder level will attract those wavering Trump voters, if there are any. http://ow.ly/YSY5P </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rubio seems to have had a total personality transplant from candidate we saw in IA, NH, SC. Yes, he lost, had to try something different...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>But not sure the Marco-the-insult-comic-candidate routine is gonna do it. http://ow.ly/YSXTp </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not sure how other campaigns exploit that. Maybe they can't. Maybe there aren't enough voters willing to leave Trump.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If a Trump voter leaves, it's because campaign has become a taxing experience--just one thing after another, no end in sight.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trump has an (apparently) unlimited tolerance for uncertainty, disorder, controversy. He's OK in campaign that wears some supporters out.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Everyone has a certain tolerance level for uncertainty, disorder, controversy. Get above it, they're uncomfortable.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emilybell</x:t>
   </x:si>
   <x:si>
     <x:t>emily bell</x:t>
   </x:si>
   <x:si>
+    <x:t>Director of Tow Centre for Digital Journalism at Columbia J School. ebell@columbia.edu.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.95 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>44.6K</x:t>
   </x:si>
   <x:si>
@@ -370,12 +1914,78 @@
     <x:t>49.4K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>RT A taster of tomorrow evening's #Humanitas talk in Cambridge... http://bit.ly/1RCQ2Pp  https://twitter.com/emilybell/status/704425811927912448 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The 'Trump University blog'  - every bit as rigorous as it sounds https://twitter.com/tomgara/status/704457762097471494 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Interesting -mass market media is gone, and building a business of scale outside FB is all but impossible https://twitter.com/subbuvincent/status/704423119629520896 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>! A book club where people don't always read the literature in advance cc @tracycorrigan @Ed_Crooks http://www.bloomberg.com/politics/articles/2016-02-29/machiavelli-would-love-this-plot-twist-from-banks-dc-book-club …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The media...:  https://twitter.com/mediaite/status/704415609052856323 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I can only imagine how the Cruz camp feels about all the 'New York values'  at play here https://twitter.com/tedcruz/status/704411964739420160 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is quite a story . I know what journalistic ethics say, buutt.. https://twitter.com/buzzfeedben/status/704379682700075008 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No just a Twitter contradiction - try the whole of the news media.. https://twitter.com/avc/status/704340632593002501 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT "DAVID Duke? Gosh, I thought he was asking about DAISY Duke. Nice gams, beautiful girl. No, I hate that guy."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>no one is more pleased than me that Leo di Caprio won a prize for sleeping naked in a dead horse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOL - though there is a place for fur and feathers friday... https://twitter.com/GeneralBoles/status/704242758895144961 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>it started with a @columbiajourn graduate and ended in a Oscar....with quite a bit in between https://twitter.com/irenachoistern/status/704284028917129216 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pulitzer Prizes very gracious about competing awards show... https://twitter.com/PulitzerPrize/status/704169610992549888 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is significant, and v good for @Medium - as @McAndrew joins : https://twitter.com/McAndrew/status/703284621535002624 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V cool! Congrats @MattAtMIT &amp; co - a win for (data) journalists #SpotlightMovie  https://twitter.com/mattatmit/status/704176342498091008 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wake up just in time to hear that @PostBaron is the best picture - as he should be #Oscars  https://twitter.com/washingtonpost/status/704170581227401216 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Trump on David Duke and the KKK:  ¯\_(ツ)_/¯ http://www.vox.com/2016/2/28/11129120/donald-trump-david-duke?utm_campaign=mattyglesias&amp;utm_content=chorus&amp;utm_medium=social&amp;utm_source=twitter …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On a train with signal and points failure. A metaphor for Arsenal's afternoon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>'I would like to add you to my professional network on LinkedIn ....no really' https://twitter.com/abc/status/703733717701939201 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CBGBs as a trouser shop is a bit distressing tho cc @Ed_Crooks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>edbott</x:t>
   </x:si>
   <x:si>
     <x:t>Ed Bott</x:t>
   </x:si>
   <x:si>
+    <x:t>Tech journalist. The Obi-Wan of Windows. Bearded, or maybe not. RTs = nodding, pointing, and/or mwa-ha-ha. Occasional affiliate links.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.14 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>110K</x:t>
   </x:si>
   <x:si>
@@ -385,27 +1995,156 @@
     <x:t>41.1K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>My new free ebook, Introducing Windows 10 for IT Professionals, is in the Kindle Store now:  http://amzn.to/1LtTnkf </x:t>
+  </x:si>
+  <x:si>
+    <x:t>But you can probably find some 70-year-old to buy booze for you.  https://twitter.com/Carnage4Life/status/704736085096542208 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is some next-level shade. Well played, @Awl.  https://twitter.com/Awl/status/704735050726838272 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Looking for the free Windows 10 for IT Professionals e-book in PDF or downloadable EPUB/MOBI formats? Here: http://blogs.msdn.com/b/microsoft_press/archive/2016/02/08/free-ebook-introducing-windows-10-for-it-professionals-technical-overview.aspx …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dear guy who downloaded my free ebook on Windows 10 for IT pros then left a 2-star Amazon review because he's not an IT pro: DIAF.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Apple wins one in Brooklyn -- not the San Bernardino case. (http://www.politico.com/f/?id=00000153-2f2b-d640-a7fb-7fbb72380001 …) pic.twitter.com/e3xxpHEoXJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT HOLY BANANAS. https://twitter.com/stereogum/status/704320684323950593 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Giant Oscar statues head east.  https://twitter.com/colbertlateshow/status/704366882317533184 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If they give the Best Actor award to anyone other than Leo, I bet Biden comes out and shuts down the show.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT We shouldn't ask users if they want security updates because we don't ask if you want airbags enabled in your car. pic.twitter.com/BY55mZZYoc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accurate. https://twitter.com/thewayoftheid/status/704143233345916928 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Perfect juxtaposition. pic.twitter.com/AI8vQ9MqQs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT The Mad Max Museum in Silverton is "Australia's first and only museum dedicated to Mad Max 2." pic.twitter.com/EM2mAJ5kIU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If this scene were in Mad Max: Fury Road, it would win Best Picture, hands down. https://twitter.com/darth/status/704131343811108869 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Did Jared Leto break into the My Cousin Vinny display at a Planet Hollywood? #Oscars pic.twitter.com/tQwjnNS6wG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Awkward and uncomfortable for who? White people? https://twitter.com/upworthy/status/704118330790121476 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT watching Chris Rock's #Oscars opener like pic.twitter.com/H5NUIm2l6q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Yes, I said it."  - Chris Rock is killing this.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From The Townsend, in Austin. This is brilliant.  https://twitter.com/andrewflowers/status/703731026858811392 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT "Wake up," whisper the clouds rolling by and the seeds falling from the branches of the trees.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>glennf</x:t>
   </x:si>
   <x:si>
     <x:t>Glenn Fleishman</x:t>
   </x:si>
   <x:si>
+    <x:t>Currently hibernating.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.53 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>400K</x:t>
   </x:si>
   <x:si>
-    <x:t>2,324</x:t>
+    <x:t>2,320</x:t>
   </x:si>
   <x:si>
     <x:t>18.5K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>And now, to paraphrase @darth: “ok well i will miss you i am hibernating right now but will return good bye” pic.twitter.com/n8Xn4zSdP4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pic.twitter.com/r1Bc8GVUMg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pic.twitter.com/bMIyTEoizC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THEY CALL ME MISTER GLENN.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ok, here it is:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Get ready.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coming up for Tweet 400,000, is @dylanw, who is wholly responsible for its content.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>“Sorry I’m a bit late, had a terrible time… All sort of things cropping up at the last moment. How are we for time? Umm—“</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Sometimes I think we were better off back then. Then again, I am a bear. https://twitter.com/voxdotcom/status/700148403255320576 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>There’s no judgment in space. Only the occasional hydrogen atom.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>It’s so beautiful out here among the stars. You can see forever.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Dear Ted Cruz: NEVER SING A STEVIE WONDER SONG AGAIN.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Cliven, Ammon, Ryan Bundy among five facing federal charges for roles in the 2014 standoff in Bunkerville, Nevada http://ow.ly/Ysifr </x:t>
+  </x:si>
+  <x:si>
+    <x:t>“Obama cuts all funding for Christian-based ‘Abstinence Only’ sex-ed programs” (in proposed budget) http://deadstate.org/obama-cuts-all-funding-for-christian-based-abstinence-only-sex-ed-programs/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Yeah those breast exams sure are controversial.  https://twitter.com/bethreinhard/status/700152070180118528 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT America. pic.twitter.com/bvJe6NZrL9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ah, @_loveallthis got sniped at the last minute by @dylanw who gets my 400,000th tweet!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Also thanks to @atduskgreg @doug_hanke and @dylanw!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coming up shortly, I’m giving @_loveallthis my 400,000th tweet as the top donor. Thanks to everyone who gave! Helping w/reproductive health.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT HourlyCats presents: pic.twitter.com/8WGZFkIIAa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ihnatko</x:t>
   </x:si>
   <x:si>
     <x:t>Andy Ihnatko</x:t>
   </x:si>
   <x:si>
+    <x:t>Chicago Sun-Times technology columnist and Internationally Beloved Industry Figure™.</x:t>
+  </x:si>
+  <x:si>
     <x:t>38.5K</x:t>
   </x:si>
   <x:si>
@@ -415,42 +2154,246 @@
     <x:t>93.4K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>RT I just published “What Are You? …and Other Questions White People Ask Me” https://medium.com/@rubinicholas/what-are-you-and-other-questions-white-people-ask-me-b090b2f1abad#.jw5ywogn6 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Finally, our DROWN attack is public, 33% web sites vulnerable: https://drownattack.com/  #ssl2 #tls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Okay, people…this is it! @StationCDRKelly comes back to Earth! Does EVERYONE have their ape masks on? #BestPrankEver https://twitter.com/Space_Station/status/704692767738363904 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trust me, kids: this is going to be WAY less icky than when you watched that TV show and wanted to be a CSI person. https://twitter.com/BostonGlobe/status/704170185628856323 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>And now, to find out if there were new episodes of “Bob’s Burgers” and/or “The Simpsons” tonight.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT A win for @Spotlightmovie, and for every journalist in the tireless pursuit of the truth. http://bos.gl/5ZB05FV  pic.twitter.com/iMhOmaAfON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The #Oscars ends with a glitter drop, just like the Super Bowl. But AMPAS didn’t have the $ to have ‘em cut into the shape of the award.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On top of all of its other fine qualities, “Spotlight” was a damn great piece of ensemble work. #Oscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hey, great: Best Picture goes to “Spotlight,” which IMO was the most end-to-end highest-quality film of the lot.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>That was the calm speech of a man who’s been nominated seven times for excellent work. I don’t think he needed anyone’s validation. #Oscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chris Christie is now announcing his endorsement of Leonardo DiCaprio’s Best Actor campaign. #Oscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I know “Ride Of The Valkyries” is in the public domain. But if its copyright were owned by the #Oscars producer, it’d explain so much.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Remember those years when the Acting category presenters had to solemnly, awkwardly, praise each nominee, to his or her face? #Oscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I mean, even Artoo isn’t too difficult, if you’ve got healthy knees: https://www.flickr.com/photos/andyi/3184641395/in/album-72157594448688786/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The only bad thing about the design of BB8: it is, like the HARDEST thing to get your picture taken with. https://twitter.com/JaredLeto/status/704164098632605696 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Even the people who greenlit the Snow White opening number only ruined the opening, not the whole #Oscars. Congrats…you’ve done the worst!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Best Director winner is being played off with that STUPID music.  You people are IDIOTS, who thought this music was a good idea. #Oscars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yet ANOTHER reason this has been a great year for JJ Abrams — how cool would it be to have the Star Wars fanfare as your walk-on music?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time for a HUMMUS BREAK!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@drwave That’s such a shame. Even if the tech awards were broadcast on cable, it could be an amazing show.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gaberivera</x:t>
   </x:si>
   <x:si>
     <x:t>Gabe Rivera</x:t>
   </x:si>
   <x:si>
+    <x:t>I run Techmeme.
+Sometimes I tweet what I mean. Sometimes I tweet the opposite. Retweets are endorphins.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.99 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>11.9K</x:t>
   </x:si>
   <x:si>
-    <x:t>4,537</x:t>
+    <x:t>4,538</x:t>
   </x:si>
   <x:si>
     <x:t>56.7K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>The final and bitterest bit of startup advice:
+No unicorn founder ever gorged on as much advice as you. So keep your day job, wantrepreneur!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>It keeps the camera in the pen
+Or else it gets the choke-slam again</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Watch me grab
+Watch me choke-slam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Release your Slack and email transcripts BuzzFeed, so we can know what your NYT sources said about what Trump said! http://www.buzzfeed.com/bensmith/trump-tape …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Congrats to #journalism for
+1. salvation via Hollywood
+2. preventing @fromedome from slipping your surly bonds again https://twitter.com/Techmeme/status/704355662457753601 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heeding warnings from VCs about unit economics, food delivery companies are finally taking their piece of the pie. https://twitter.com/ryanvance/status/703802624462598145 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>So what's the best way to dissuade someone from supporting Trump without suggesting they're as stupid as they clearly are?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Trump says he'll change US libel laws to make it easier to sue news organizations http://www.politico.com/blogs/on-media/2016/02/donald-trump-libel-laws-219866 … http://mediagazer.com/160226/p15#a160226p15 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+1 for @recode, -1 for @buzzfeed, and a wash for @comcast  http://recode.net/2016/02/26/johana-bhuiyan-is-now-driving-recodes-transportation-coverage/ … #congrats @jmbooyah. And suck it traitor @JohnPaczkowski!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bad optics for Sacks (the blameless COO of 14 months) when *this* guy keeps frantically squealing praise for him: https://twitter.com/search?f=tweets&amp;vertical=default&amp;q=%40davidsacks%20from%3Ajason%20&amp;src=typd …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT .@techmeme being @techmeme to @Gawker for being @gawker to @facebook for being @facebook. https://twitter.com/gaberivera/status/702923149730394113 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(Which is swell, but I just thought, hey, why not give some Gawker treatment to Gawker?)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gawker, famous for gender issues, and probably whiter than Facebook, calls Facebook "notoriously white, bro-centric" http://gizmodo.com/mark-zuckerberg-asks-racist-facebook-employees-to-stop-1761272768 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Google bans 9to5Google from using ad network, claims trademark violation, wants name change http://9to5google.com/2016/02/24/google-wants-us-to-change-our-name-from-9to5google/ … http://mediagazer.com/160224/p19#a160224p19 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hunter Walk is a good guy (well, at least an OK guy) even though he tries to shame people for posting useful data. https://twitter.com/hunterwalk/status/702612461183066112 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unsurprising, but good to know! https://twitter.com/Techmeme/status/702646209639424000 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>You may be thinking Web 2.0 is finally dead now but zombie Delicious just waved to us in Jan https://twitter.com/Techmeme/status/687212759864311808 … https://twitter.com/Techmeme/status/702302276795240448 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The happy news here is John Herrman finally gets the sort of editing he always needed! https://twitter.com/mediagazer/status/702133424060956672 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If you're in SF (or anywhere nearby) and have a clear view of the eastward horizon, check out the moon right now.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Twitter Hires Woman I Finally Get To Disobey Now</x:t>
+  </x:si>
+  <x:si>
+    <x:t>joannastern</x:t>
   </x:si>
   <x:si>
     <x:t>Joanna Stern</x:t>
   </x:si>
   <x:si>
-    <x:t>24K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,606</x:t>
+    <x:t>I've got a one tech mind. WSJ Personal Technology Columnist.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.60 years</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.1K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,566</x:t>
   </x:si>
   <x:si>
     <x:t>84.2K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>I think I'm OK at Twitter. If I was great at Twitter this tweet would be better.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The new DJI Phantom 4 is smarter and can sense obstacles but will still... chop of a wiener   https://twitter.com/geoffreyfowler/status/704709450012078080 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT DJI’s #Phantom4 can outsmart idiot pilots. My @wsj review of the (almost) crash-proof drone http://on.wsj.com/1Sfoul5  pic.twitter.com/vnrhzYuRIl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+ 100 for sports journalists. -100 for tech journalists.  https://twitter.com/BenGolliver/status/704530283949731840 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If a chip falls on the ground in your office and you eat it, did it ever really fall?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Microsoft is taking a big step toward putting its HoloLens into consumer hands. http://on.wsj.com/1LPEKTi  pic.twitter.com/6ttML82MIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Giving up on spending hours making a really good video every week. This has 1.3M views and just saved my life:  https://www.youtube.com/watch?v=DQf9YqbD8WI …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Samsung’s ad game is back.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Apple To Debut New iPad, 4-Inch iPhone At March 21 Event http://www.buzzfeed.com/johnpaczkowski/apple-to-debut-new-ipad-smaller-iphone-at-march-15-event?utm_term=.gkb77e251 … via @johnpaczkowski @buzzfeednews pic.twitter.com/2Xhb1YwNH7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>But if @JohnPaczkowski is reporting the date of the non-confirmed event, the new non-confirmed date it is probably the confirmed date.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breaking: Apple has moved non-confirmed event to a different non-confirmed date.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ok I'm done with my #therealfullerhouse tweets... for the night! Nine episodes to go.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Danny realizes he is a terrible TV host. Starts Uber for cleaning service called Dot.Comet. #therealfullerhouse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jesse sells "Rippers" brand headphones to Jimmy Iovine. Joey and Jesse's "Rush Hour Renegades" becomes top Beats 1 show #therealfullerhouse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kimmy's competitor to Zappos, valued at $2B, includes deodorizer with every pair of shoes. #therealfullerhouse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Tanners live in Oakland now. The house was sold to the 55th Facebook employee post IPO. #therealfullerhouse pic.twitter.com/Z7SGzI05oh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steve is actually the new Steve Jobs. #therealfullerhouse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jesse and Becky's twins invent Snapchat. #therealfullerhouse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I had a leightweight chocker necklace in middle school.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crap I spelled lightweight right! Redoing tweet.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>karaswisher</x:t>
   </x:si>
   <x:si>
     <x:t>Kara Swisher</x:t>
   </x:si>
   <x:si>
+    <x:t>Runs @Recode and finally an employee of someone named Jim.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.83 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>71.8K</x:t>
   </x:si>
   <x:si>
@@ -460,12 +2403,75 @@
     <x:t>1.07M</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>Big hire: Vox Snags Mic's Elizabeth Plank for Election Coverage (Exclusive) http://www.hollywoodreporter.com/news/vox-snags-mics-elizabeth-plank-871624 … via thr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In which I blab about my great love: real estate: http://www.curbed.com/2016/3/1/11133666/kara-swisher-home?utm_campaign=curbed&amp;utm_content=entry&amp;utm_medium=social&amp;utm_source=twitter … via Curbed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#MakeAmericaDrumpfAgain Brilliant video on the short-fingered vulgarian by John Oliver https://youtu.be/DnpO_RTSNmQ  pic.twitter.com/lqAfx4ARJq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Snapchat users now watch eight billion videos per day http://on.recode.net/1XW3oJ2  via @KurtWagner8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>How Marissa Mayer Keeps Talent: Meet Yahoo's $18 Million CRO http://on.recode.net/1ndfjVt  via @karaswisher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Snapchat hires @sriramk, exec who ran Facebook's ad network http://on.recode.net/1KR6EDC  via @KurtWagner8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tansy Aspinall And The Gorillas: Reunited At Last! - OFFICIAL VIDEO https://youtu.be/KCA63RsSyVw  via @YouTube</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Todays entrepreneurs should "focus on unit economics, not growth" Sam Shank of HotelTonight @karaswisher @heyheyesj http://wp.me/p49vDk-21qG </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Had a fun chat w/ @karaswisher on @Recode's Decode about all things @hoteltonight, unicorns profitability &amp; more http://on.recode.net/1QQeM9N </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @karaswisher the interview to Eric Weiner is just great. Inspiring and deep... I have to read the book now!http://www.ericweinerbooks.com/books/the-geography-of-genius/description/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John Oliver Destroys Donald Trump: ‘You Are Either a Racist or You Are Pretending to Be’ http://thebea.st/21CUh21  via @thedailybeast</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CEO @samshank had to convince hotels HotelTonight wasn't "another Groupon" http://on.recode.net/1QlVbw3  via @heyheyesj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Excited to welcome Dan Frommer to Re/code and Vox Media.  New Re/code editor in chief: Dan Frommer http://cnnmon.ie/1OIrU9r  via @CNNMoney</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Some personal news... https://twitter.com/karaswisher/status/704351218525564928 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @karaswisher @anildash @Recode I will be forever grateful to you guys for announcing my hire before @fromedome's &amp; on a different day</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT But also stupidly excited to work with @pkafka (third time, yowza), @karaswisher, @Lock, and the @recode and @Vox crew.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Really looking forward to working with @fromedome, who's built lots of cool things on his own: http://on.recode.net/1KLFDkN  by @karaswisher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Re/code editor in chief: Dan Frommer http://cnnmon.ie/1OIrU9r  via @CNNMoney</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meet the new boss: Dan Frommer is Re/code's editor in chief http://on.recode.net/1KLFDkN  via @karaswisher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Meet the new boss: Dan Frommer is Re/code's editor in chief http://on.recode.net/1KLFDkN  by @karaswisher pic.twitter.com/TORX4jJ4nJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drewmagary</x:t>
   </x:si>
   <x:si>
     <x:t>Drew Magary</x:t>
   </x:si>
   <x:si>
+    <x:t>Deadspin Columnist. GQ Correspondent. Author of The Hike (out 8/2), The Postmortal, and Someone Could Get Hurt. MOTHERFUCKING CHOPPED CHAMPION.</x:t>
+  </x:si>
+  <x:si>
     <x:t>31.4K</x:t>
   </x:si>
   <x:si>
@@ -475,37 +2481,239 @@
     <x:t>120K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>Novel #2 comes out August 2nd.  Pre-order here and be one of the beautiful people: http://www.penguin.com/book/the-hike-by-drew-magary/9780399563850 … pic.twitter.com/uE0hXW1JR9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Because fuck you, that's why http://nymag.com/scienceofus/2016/02/what-makes-swearing-so-damn-satisfying-anyway.html?mid=twitter_nymag …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tuesday, ranked:
+1. Fat
+2. Ruby (song)
+3. Super
+4. Weld
+5. Ruby (restaurant)
+6. with Morrie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Can't believe I didn't remember this juxtaposition. pic.twitter.com/apTvhff9Ju</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @drewmagary https://instagram.com/p/BCYUNMeBGQz/  peak trump bro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT .@bterris goes looking for Trump's base in Boston and finds the ultimate Masshole: https://www.washingtonpost.com/lifestyle/style/how-is-trump-winning-over-massachusetts-republicans-he-speaks-their-language/2016/02/29/977fa51e-dda1-11e5-925f-1d10062cc82d_story.html … pic.twitter.com/OKFvFz0iG6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WE'RE NOT?!!! (Takes off pogo shoes) https://twitter.com/neiltyson/status/704330815321210884 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Watch John Oliver MURDERSLAY Donald Trump: http://deadsp.in/gSokFBc </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Why does the extra day happen in the shittiest month?  Put Leap Day in fucking June.  #ExtraSummer! #Science!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT You would not want to see what Fur Trapper Twitter would’ve looked like if The Revenant had won.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Also we're two years away from Michael Keaton winning an Oscar for a shitty movie because he didn't win anything for Birdman or Spotlight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Six years ago I demanded the Oscars install a THANK YOU crawl.  I disavow the post.  The crawl sucked. http://www.nbcsandiego.com/blogs/popcornbiz/A-Very-Modest-Proposal-To-Fix-Oscar-Speeches-86579897.html …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oh for fuck's sake https://twitter.com/tmbhmltn/status/704174699891302401 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Actually this is my favorite Trump Oscars Tweet pic.twitter.com/yllg79BWey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT The nominees are
+Leonardo DiCaprio
+Leonardo DiCaprio
+Leonardo DiCaprio
+And the winner is 
+*opens envelope*
+mad max fury road</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thanks to the Oscars I get to re-learn what sound is every year.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @drewmagary All mad max wining does is making me wish I was watching Mad Max.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Everyone's thank you crawl looks like a kindergarten roll call list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOU GOT A FUCKING CRAWL STOP THANKING PEOPLE OUT LOUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOLY SHIT THEY DID THE THANK YOU CRAWL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jimrome</x:t>
   </x:si>
   <x:si>
     <x:t>Jim Rome</x:t>
   </x:si>
   <x:si>
+    <x:t>http://jimrome.com </x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.22 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>16.2K</x:t>
   </x:si>
   <x:si>
-    <x:t>118</x:t>
+    <x:t>116</x:t>
   </x:si>
   <x:si>
     <x:t>1.41M</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>.@DLasco2 on the show right now on @CBSSportsRadio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SoCal Clones: the show is airing on @Mighty1090</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@CuonzoMartin on the show right now on @CBSSportsRadio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@JFeinsteinBooks on the show right now on @CBSSportsRadio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@SI_LeeJenkins told me other NBA teams watch GSW &amp; "there’s a resignation that a lot of teams are playing for 2nd" http://jimrome.com/2016/02/29/lee-jenkins-on-steph-curry-he-just-keeps-pushing-the-boundaries-further-and-further/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@maxthehooper on the show right now on @CBSSportsRadio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@CoachDixon on the show right now on @CBSSportsRadio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@SI_LeeJenkins talking Steph and the Warriors on the show right now on @CBSSportsRadio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Today: Steph, Philip goes fossil, Balboa got screwed, Sergio chokes (again), &amp; Diaz has a plan for Conor. Bell in 30 on @CBSSportsRadio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#Cheers #MagicBlue pic.twitter.com/kQB8pT0f3s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@ShaunLivingston told me "if we have the opportunity, I see us trying to go for" Bulls record of 72 wins. http://jimrome.com/2016/02/26/shaun-livingston-wants-to-beat-1995-96-chicago-bulls-win-record/ …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@sam_amick on the show right now on @CBSSportsRadio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@CoachChrisMack on the show right now on @CBSSportsRadio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @jimrome Lived in central IL 37 of my 38 yrs, @ShaunLivingston's story never gets old. You can't be from here &amp; not love this dude #champion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@ShaunLivingston on the show right now on @CBSSportsRadio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Got hammered by the 101.  Had to abort the mission.  Hit Joe's Cafe instead.  One drink there, and you cancel XMAS https://twitter.com/NomoNagaoka/status/703065503191822336 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bro.  Relax. It says 2006, not 1986.  Denim up.  Back in.  Finish strong. . https://twitter.com/Saabio_M/status/703251419718033409 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Today on the show: @ShaunLivingston, @CoachChrisMack, and @sam_amick. Bell in 15 on @CBSSportsRadio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @jimrome
+Working from home today. No matter. Put on the denim &amp; just went out &amp; backed in to the driveway. Winners find a way to win.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT @jimrome TGIF, Vance. pic.twitter.com/rXNu00nSze</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kelligrant</x:t>
   </x:si>
   <x:si>
     <x:t>Kelli B. Grant</x:t>
   </x:si>
   <x:si>
+    <x:t>Consumer reporter @CNBC online. Covering personal finance, saving &amp; spending. Getting a master's in financial planning. New mom! Sometimes, I sleep.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.33 years</x:t>
+  </x:si>
+  <x:si>
     <x:t>10.2K</x:t>
   </x:si>
   <x:si>
-    <x:t>651</x:t>
+    <x:t>652</x:t>
   </x:si>
   <x:si>
     <x:t>12.2K</x:t>
   </x:si>
   <x:si>
-    <x:t>[object Object],[object Object],[object Object],[object Object],[object Object]</x:t>
+    <x:t>Good grief. https://twitter.com/mashable/status/704662982303866880 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT How to Keep Your Kids From Fighting Over Your Will: 5 Rules to Prevent a Family War: http://nexav.org/1KQigXv  pic.twitter.com/JQ2nHYTsrJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Disney hikes ticket prices 20% when the kids are out of school. We predict the consequences: http://bit.ly/1QlPIFx  pic.twitter.com/WtdhZcTJh1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>My best RTs this week came from: @PointClearHIT @HCBlueBook #thankSAll Who were yours? http://sumall.com/thankyou  pic.twitter.com/5455rUADeN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Butt implants were the fastest growing type of cosmetic surgery in 2015: http://onforb.es/1RfGUxm  pic.twitter.com/w6n7OgRbjh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.@jdickler Exactly! I'm not sure there's a happy time to talk life insurance.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ugh. https://twitter.com/JeanChatzky/status/704301303279849472 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nice birthday message from @StateFarm, reminding me that I'll soon be a year older.. and that much closer to death. pic.twitter.com/cokwXsgpfr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Are you working for free on Leap Day? http://money.us/1QFIPun </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Prepare your finances to make the best of whatever may come in retirement: http://ow.ly/YObxU </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Loving the hilarious election cocktails from @TheTownsendATX. Which one gets your vote?  http://bit.ly/1VJBi2i  pic.twitter.com/yp7x4bURNF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT We went out in New York City to see what took longer to buy: A gun or a fancy donut? http://on.mash.to/24rXZxO  pic.twitter.com/22pT9wPJmk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Here's where Hillary Clinton and Bernie Sanders stand on college affordability http://read.bi/20XLJk5  pic.twitter.com/YwhZ87AT52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT On @SquawkAlley up next:  https://twitter.com/USATODAY/status/702570250236248069 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Secret side door &amp; second-chance admissions to dream #colleges: Rejection isn't necessarily final. http://ow.ly/YKv5o </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Your must-read of the day, folks: https://twitter.com/melhicken/status/702832380457951232 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Love that @TheDomino is thrifty with leftovers for lunch! https://twitter.com/typingelbow/status/702870365370974208 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Some crazy ideas here... https://twitter.com/money/status/702822860667133952 …</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT Why don’t Americans save more for old age? Psychology has offered an answer (procrastination) and suggested a cure. http://nyti.ms/1QBHPxG </x:t>
+  </x:si>
+  <x:si>
+    <x:t>RT The restaurant you want is fully booked? No worries - here are seven ways to get in anyway: http://ow.ly/XyYXP  pic.twitter.com/VCJqgCxDPn</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -868,7 +3076,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:27">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -884,549 +3092,2712 @@
       <x:c r="E1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="Q1" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="R1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="T1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="U1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="V1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="W1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="X1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Y1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="Z1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="AA1" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:5">
+    <x:row r="2" spans="1:27">
       <x:c r="A2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R2" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="S2" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="T2" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="U2" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="V2" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="W2" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="X2" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="Y2" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Z2" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="AA2" s="0" t="s">
+        <x:v>53</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:5">
+    <x:row r="3" spans="1:27">
       <x:c r="A3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="Q3" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="R3" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="S3" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="T3" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="U3" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="V3" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="W3" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="X3" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="Y3" s="0" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:5">
+    <x:row r="4" spans="1:27">
       <x:c r="A4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="S4" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="T4" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="U4" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="V4" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="W4" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="X4" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Y4" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="Z4" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AA4" s="0" t="s">
+        <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:5">
+    <x:row r="5" spans="1:27">
       <x:c r="A5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="O5" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="P5" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="Q5" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="R5" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="S5" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="T5" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="U5" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="V5" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="W5" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="X5" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="Y5" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="Z5" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="AA5" s="0" t="s">
+        <x:v>132</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5">
+    <x:row r="6" spans="1:27">
       <x:c r="A6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="O6" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="P6" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="Q6" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="R6" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="S6" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="T6" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="U6" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="V6" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="W6" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="X6" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="Y6" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="Z6" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="AA6" s="0" t="s">
+        <x:v>159</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:5">
+    <x:row r="7" spans="1:27">
       <x:c r="A7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="O7" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="P7" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="Q7" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="R7" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="S7" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="T7" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="U7" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="V7" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="W7" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="X7" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="Y7" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="Z7" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="AA7" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:27">
+      <x:c r="A8" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="N8" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="O8" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="P8" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="Q8" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="R8" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="S8" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="T8" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="U8" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="V8" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="W8" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="X8" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="Y8" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="Z8" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="AA8" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:27">
+      <x:c r="A9" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="O9" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="P9" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="Q9" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="R9" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="S9" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="T9" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="U9" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="V9" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="W9" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="X9" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="Y9" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="Z9" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="AA9" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:27">
+      <x:c r="A10" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="N10" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="O10" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="P10" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="Q10" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="R10" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="S10" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="T10" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="U10" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="V10" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="W10" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="X10" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="Y10" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="Z10" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="AA10" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:27">
+      <x:c r="A11" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="N11" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="O11" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="P11" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="Q11" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="R11" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="S11" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="T11" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="U11" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="V11" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="W11" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="X11" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="Y11" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="Z11" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="AA11" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:27">
+      <x:c r="A12" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="N12" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="O12" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="P12" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="Q12" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="R12" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="S12" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="T12" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="U12" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="V12" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="W12" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="X12" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="Y12" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="Z12" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:27">
+      <x:c r="A13" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="N13" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="O13" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="P13" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="Q13" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="R13" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="S13" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="T13" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="U13" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="V13" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="W13" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="X13" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="Y13" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:27">
+      <x:c r="A14" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="N14" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="O14" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="P14" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="Q14" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="R14" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="S14" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="T14" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="U14" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="V14" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="W14" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="X14" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="Y14" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="Z14" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="AA14" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:27">
+      <x:c r="A15" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="O15" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="P15" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="Q15" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="R15" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="S15" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="T15" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="U15" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="V15" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="W15" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="X15" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="Y15" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="Z15" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="AA15" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:27">
+      <x:c r="A16" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="P16" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="Q16" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="R16" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="S16" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="T16" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="U16" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="V16" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="W16" s="0" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="X16" s="0" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="Y16" s="0" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="Z16" s="0" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="AA16" s="0" t="s">
+        <x:v>424</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:27">
+      <x:c r="A17" s="0" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="O17" s="0" t="s">
+        <x:v>439</x:v>
+      </x:c>
+      <x:c r="P17" s="0" t="s">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c r="Q17" s="0" t="s">
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="R17" s="0" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="S17" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="T17" s="0" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="U17" s="0" t="s">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="V17" s="0" t="s">
+        <x:v>446</x:v>
+      </x:c>
+      <x:c r="W17" s="0" t="s">
+        <x:v>447</x:v>
+      </x:c>
+      <x:c r="X17" s="0" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="Y17" s="0" t="s">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="Z17" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="AA17" s="0" t="s">
+        <x:v>451</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:27">
+      <x:c r="A18" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>453</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>455</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>34</x:v>
+      <x:c r="H18" s="0" t="s">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="L18" s="0" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="M18" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="N18" s="0" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="O18" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="P18" s="0" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="Q18" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="R18" s="0" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="S18" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="T18" s="0" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="U18" s="0" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="V18" s="0" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="W18" s="0" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="X18" s="0" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="Y18" s="0" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="Z18" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="AA18" s="0" t="s">
+        <x:v>477</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>39</x:v>
+    <x:row r="19" spans="1:27">
+      <x:c r="A19" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="K19" s="0" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="L19" s="0" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="M19" s="0" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="N19" s="0" t="s">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c r="O19" s="0" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="P19" s="0" t="s">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="Q19" s="0" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="R19" s="0" t="s">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="S19" s="0" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="T19" s="0" t="s">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="U19" s="0" t="s">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="V19" s="0" t="s">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="W19" s="0" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="X19" s="0" t="s">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c r="Y19" s="0" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="Z19" s="0" t="s">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="AA19" s="0" t="s">
+        <x:v>504</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="A9" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>44</x:v>
+    <x:row r="20" spans="1:27">
+      <x:c r="A20" s="0" t="s">
+        <x:v>505</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="s">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="N20" s="0" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="O20" s="0" t="s">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="P20" s="0" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="Q20" s="0" t="s">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c r="R20" s="0" t="s">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c r="S20" s="0" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="T20" s="0" t="s">
+        <x:v>524</x:v>
+      </x:c>
+      <x:c r="U20" s="0" t="s">
+        <x:v>525</x:v>
+      </x:c>
+      <x:c r="V20" s="0" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="W20" s="0" t="s">
+        <x:v>527</x:v>
+      </x:c>
+      <x:c r="X20" s="0" t="s">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="Y20" s="0" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="Z20" s="0" t="s">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="AA20" s="0" t="s">
+        <x:v>531</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="A10" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>49</x:v>
+    <x:row r="21" spans="1:27">
+      <x:c r="A21" s="0" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="s">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="s">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="s">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c r="N21" s="0" t="s">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="O21" s="0" t="s">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="P21" s="0" t="s">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="Q21" s="0" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="R21" s="0" t="s">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c r="S21" s="0" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="T21" s="0" t="s">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="U21" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="V21" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="W21" s="0" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="X21" s="0" t="s">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="Y21" s="0" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="Z21" s="0" t="s">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c r="AA21" s="0" t="s">
+        <x:v>558</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="A11" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>54</x:v>
+    <x:row r="22" spans="1:27">
+      <x:c r="A22" s="0" t="s">
+        <x:v>559</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>563</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="K22" s="0" t="s">
+        <x:v>569</x:v>
+      </x:c>
+      <x:c r="L22" s="0" t="s">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="s">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c r="N22" s="0" t="s">
+        <x:v>572</x:v>
+      </x:c>
+      <x:c r="O22" s="0" t="s">
+        <x:v>573</x:v>
+      </x:c>
+      <x:c r="P22" s="0" t="s">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="Q22" s="0" t="s">
+        <x:v>575</x:v>
+      </x:c>
+      <x:c r="R22" s="0" t="s">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c r="S22" s="0" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="T22" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c r="U22" s="0" t="s">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="V22" s="0" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="W22" s="0" t="s">
+        <x:v>581</x:v>
+      </x:c>
+      <x:c r="X22" s="0" t="s">
+        <x:v>582</x:v>
+      </x:c>
+      <x:c r="Y22" s="0" t="s">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c r="Z22" s="0" t="s">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="AA22" s="0" t="s">
+        <x:v>585</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="A12" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>59</x:v>
+    <x:row r="23" spans="1:27">
+      <x:c r="A23" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>587</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>589</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>595</x:v>
+      </x:c>
+      <x:c r="K23" s="0" t="s">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="L23" s="0" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="M23" s="0" t="s">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c r="N23" s="0" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="O23" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="P23" s="0" t="s">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="Q23" s="0" t="s">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="R23" s="0" t="s">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c r="S23" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="T23" s="0" t="s">
+        <x:v>605</x:v>
+      </x:c>
+      <x:c r="U23" s="0" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="V23" s="0" t="s">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c r="W23" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="X23" s="0" t="s">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c r="Y23" s="0" t="s">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c r="Z23" s="0" t="s">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="AA23" s="0" t="s">
+        <x:v>612</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="A13" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>64</x:v>
+    <x:row r="24" spans="1:27">
+      <x:c r="A24" s="0" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>617</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="K24" s="0" t="s">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="L24" s="0" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="M24" s="0" t="s">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="N24" s="0" t="s">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c r="O24" s="0" t="s">
+        <x:v>627</x:v>
+      </x:c>
+      <x:c r="P24" s="0" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="Q24" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="R24" s="0" t="s">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="S24" s="0" t="s">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="T24" s="0" t="s">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="U24" s="0" t="s">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="V24" s="0" t="s">
+        <x:v>634</x:v>
+      </x:c>
+      <x:c r="W24" s="0" t="s">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c r="X24" s="0" t="s">
+        <x:v>636</x:v>
+      </x:c>
+      <x:c r="Y24" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="Z24" s="0" t="s">
+        <x:v>638</x:v>
+      </x:c>
+      <x:c r="AA24" s="0" t="s">
+        <x:v>639</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="A14" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>69</x:v>
+    <x:row r="25" spans="1:27">
+      <x:c r="A25" s="0" t="s">
+        <x:v>640</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>641</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>647</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="s">
+        <x:v>649</x:v>
+      </x:c>
+      <x:c r="K25" s="0" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="s">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="N25" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="O25" s="0" t="s">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="P25" s="0" t="s">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c r="Q25" s="0" t="s">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="R25" s="0" t="s">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c r="S25" s="0" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="T25" s="0" t="s">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c r="U25" s="0" t="s">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c r="V25" s="0" t="s">
+        <x:v>661</x:v>
+      </x:c>
+      <x:c r="W25" s="0" t="s">
+        <x:v>662</x:v>
+      </x:c>
+      <x:c r="X25" s="0" t="s">
+        <x:v>663</x:v>
+      </x:c>
+      <x:c r="Y25" s="0" t="s">
+        <x:v>664</x:v>
+      </x:c>
+      <x:c r="Z25" s="0" t="s">
+        <x:v>665</x:v>
+      </x:c>
+      <x:c r="AA25" s="0" t="s">
+        <x:v>666</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="A15" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>74</x:v>
+    <x:row r="26" spans="1:27">
+      <x:c r="A26" s="0" t="s">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>675</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
+        <x:v>679</x:v>
+      </x:c>
+      <x:c r="N26" s="0" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="O26" s="0" t="s">
+        <x:v>681</x:v>
+      </x:c>
+      <x:c r="P26" s="0" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="Q26" s="0" t="s">
+        <x:v>683</x:v>
+      </x:c>
+      <x:c r="R26" s="0" t="s">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="S26" s="0" t="s">
+        <x:v>685</x:v>
+      </x:c>
+      <x:c r="T26" s="0" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="U26" s="0" t="s">
+        <x:v>687</x:v>
+      </x:c>
+      <x:c r="V26" s="0" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="W26" s="0" t="s">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c r="X26" s="0" t="s">
+        <x:v>690</x:v>
+      </x:c>
+      <x:c r="Y26" s="0" t="s">
+        <x:v>691</x:v>
+      </x:c>
+      <x:c r="Z26" s="0" t="s">
+        <x:v>692</x:v>
+      </x:c>
+      <x:c r="AA26" s="0" t="s">
+        <x:v>693</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="A16" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>79</x:v>
+    <x:row r="27" spans="1:27">
+      <x:c r="A27" s="0" t="s">
+        <x:v>694</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>695</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>696</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>698</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>700</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="s">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c r="K27" s="0" t="s">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="L27" s="0" t="s">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="s">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c r="N27" s="0" t="s">
+        <x:v>706</x:v>
+      </x:c>
+      <x:c r="O27" s="0" t="s">
+        <x:v>707</x:v>
+      </x:c>
+      <x:c r="P27" s="0" t="s">
+        <x:v>708</x:v>
+      </x:c>
+      <x:c r="Q27" s="0" t="s">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c r="R27" s="0" t="s">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c r="S27" s="0" t="s">
+        <x:v>711</x:v>
+      </x:c>
+      <x:c r="T27" s="0" t="s">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c r="U27" s="0" t="s">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="V27" s="0" t="s">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="W27" s="0" t="s">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c r="X27" s="0" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="Y27" s="0" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="Z27" s="0" t="s">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="AA27" s="0" t="s">
+        <x:v>719</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="A17" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>84</x:v>
+    <x:row r="28" spans="1:27">
+      <x:c r="A28" s="0" t="s">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="s">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="K28" s="0" t="s">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c r="L28" s="0" t="s">
+        <x:v>731</x:v>
+      </x:c>
+      <x:c r="M28" s="0" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="N28" s="0" t="s">
+        <x:v>733</x:v>
+      </x:c>
+      <x:c r="O28" s="0" t="s">
+        <x:v>734</x:v>
+      </x:c>
+      <x:c r="P28" s="0" t="s">
+        <x:v>735</x:v>
+      </x:c>
+      <x:c r="Q28" s="0" t="s">
+        <x:v>736</x:v>
+      </x:c>
+      <x:c r="R28" s="0" t="s">
+        <x:v>737</x:v>
+      </x:c>
+      <x:c r="S28" s="0" t="s">
+        <x:v>738</x:v>
+      </x:c>
+      <x:c r="T28" s="0" t="s">
+        <x:v>739</x:v>
+      </x:c>
+      <x:c r="U28" s="0" t="s">
+        <x:v>740</x:v>
+      </x:c>
+      <x:c r="V28" s="0" t="s">
+        <x:v>741</x:v>
+      </x:c>
+      <x:c r="W28" s="0" t="s">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c r="X28" s="0" t="s">
+        <x:v>743</x:v>
+      </x:c>
+      <x:c r="Y28" s="0" t="s">
+        <x:v>744</x:v>
+      </x:c>
+      <x:c r="Z28" s="0" t="s">
+        <x:v>745</x:v>
+      </x:c>
+      <x:c r="AA28" s="0" t="s">
+        <x:v>746</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:5">
-      <x:c r="A18" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>88</x:v>
+    <x:row r="29" spans="1:27">
+      <x:c r="A29" s="0" t="s">
+        <x:v>747</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>748</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>749</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>751</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>752</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>753</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>754</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="J29" s="0" t="s">
+        <x:v>756</x:v>
+      </x:c>
+      <x:c r="K29" s="0" t="s">
+        <x:v>757</x:v>
+      </x:c>
+      <x:c r="L29" s="0" t="s">
+        <x:v>758</x:v>
+      </x:c>
+      <x:c r="M29" s="0" t="s">
+        <x:v>759</x:v>
+      </x:c>
+      <x:c r="N29" s="0" t="s">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="O29" s="0" t="s">
+        <x:v>761</x:v>
+      </x:c>
+      <x:c r="P29" s="0" t="s">
+        <x:v>762</x:v>
+      </x:c>
+      <x:c r="Q29" s="0" t="s">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="R29" s="0" t="s">
+        <x:v>764</x:v>
+      </x:c>
+      <x:c r="S29" s="0" t="s">
+        <x:v>765</x:v>
+      </x:c>
+      <x:c r="T29" s="0" t="s">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c r="U29" s="0" t="s">
+        <x:v>767</x:v>
+      </x:c>
+      <x:c r="V29" s="0" t="s">
+        <x:v>768</x:v>
+      </x:c>
+      <x:c r="W29" s="0" t="s">
+        <x:v>769</x:v>
+      </x:c>
+      <x:c r="X29" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="Y29" s="0" t="s">
+        <x:v>771</x:v>
+      </x:c>
+      <x:c r="Z29" s="0" t="s">
+        <x:v>772</x:v>
+      </x:c>
+      <x:c r="AA29" s="0" t="s">
+        <x:v>773</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="A19" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>93</x:v>
+    <x:row r="30" spans="1:27">
+      <x:c r="A30" s="0" t="s">
+        <x:v>774</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>775</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>776</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>777</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>778</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>779</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>780</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>781</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>782</x:v>
+      </x:c>
+      <x:c r="J30" s="0" t="s">
+        <x:v>783</x:v>
+      </x:c>
+      <x:c r="K30" s="0" t="s">
+        <x:v>784</x:v>
+      </x:c>
+      <x:c r="L30" s="0" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="M30" s="0" t="s">
+        <x:v>786</x:v>
+      </x:c>
+      <x:c r="N30" s="0" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="O30" s="0" t="s">
+        <x:v>788</x:v>
+      </x:c>
+      <x:c r="P30" s="0" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="Q30" s="0" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="R30" s="0" t="s">
+        <x:v>791</x:v>
+      </x:c>
+      <x:c r="S30" s="0" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="T30" s="0" t="s">
+        <x:v>793</x:v>
+      </x:c>
+      <x:c r="U30" s="0" t="s">
+        <x:v>794</x:v>
+      </x:c>
+      <x:c r="V30" s="0" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="W30" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="X30" s="0" t="s">
+        <x:v>797</x:v>
+      </x:c>
+      <x:c r="Y30" s="0" t="s">
+        <x:v>798</x:v>
+      </x:c>
+      <x:c r="Z30" s="0" t="s">
+        <x:v>799</x:v>
+      </x:c>
+      <x:c r="AA30" s="0" t="s">
+        <x:v>800</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="A20" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>98</x:v>
+    <x:row r="31" spans="1:27">
+      <x:c r="A31" s="0" t="s">
+        <x:v>801</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>802</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>803</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>804</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>805</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>806</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>808</x:v>
+      </x:c>
+      <x:c r="J31" s="0" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="K31" s="0" t="s">
+        <x:v>810</x:v>
+      </x:c>
+      <x:c r="L31" s="0" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="M31" s="0" t="s">
+        <x:v>812</x:v>
+      </x:c>
+      <x:c r="N31" s="0" t="s">
+        <x:v>813</x:v>
+      </x:c>
+      <x:c r="O31" s="0" t="s">
+        <x:v>814</x:v>
+      </x:c>
+      <x:c r="P31" s="0" t="s">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="Q31" s="0" t="s">
+        <x:v>816</x:v>
+      </x:c>
+      <x:c r="R31" s="0" t="s">
+        <x:v>817</x:v>
+      </x:c>
+      <x:c r="S31" s="0" t="s">
+        <x:v>818</x:v>
+      </x:c>
+      <x:c r="T31" s="0" t="s">
+        <x:v>819</x:v>
+      </x:c>
+      <x:c r="U31" s="0" t="s">
+        <x:v>820</x:v>
+      </x:c>
+      <x:c r="V31" s="0" t="s">
+        <x:v>821</x:v>
+      </x:c>
+      <x:c r="W31" s="0" t="s">
+        <x:v>822</x:v>
+      </x:c>
+      <x:c r="X31" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="Y31" s="0" t="s">
+        <x:v>824</x:v>
+      </x:c>
+      <x:c r="Z31" s="0" t="s">
+        <x:v>825</x:v>
+      </x:c>
+      <x:c r="AA31" s="0" t="s">
+        <x:v>826</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:5">
-      <x:c r="A21" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s">
-        <x:v>103</x:v>
+    <x:row r="32" spans="1:27">
+      <x:c r="A32" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>828</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>829</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>830</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>831</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>832</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>833</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>834</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>835</x:v>
+      </x:c>
+      <x:c r="J32" s="0" t="s">
+        <x:v>836</x:v>
+      </x:c>
+      <x:c r="K32" s="0" t="s">
+        <x:v>837</x:v>
+      </x:c>
+      <x:c r="L32" s="0" t="s">
+        <x:v>838</x:v>
+      </x:c>
+      <x:c r="M32" s="0" t="s">
+        <x:v>839</x:v>
+      </x:c>
+      <x:c r="N32" s="0" t="s">
+        <x:v>840</x:v>
+      </x:c>
+      <x:c r="O32" s="0" t="s">
+        <x:v>841</x:v>
+      </x:c>
+      <x:c r="P32" s="0" t="s">
+        <x:v>842</x:v>
+      </x:c>
+      <x:c r="Q32" s="0" t="s">
+        <x:v>843</x:v>
+      </x:c>
+      <x:c r="R32" s="0" t="s">
+        <x:v>844</x:v>
+      </x:c>
+      <x:c r="S32" s="0" t="s">
+        <x:v>845</x:v>
+      </x:c>
+      <x:c r="T32" s="0" t="s">
+        <x:v>846</x:v>
+      </x:c>
+      <x:c r="U32" s="0" t="s">
+        <x:v>847</x:v>
+      </x:c>
+      <x:c r="V32" s="0" t="s">
+        <x:v>848</x:v>
+      </x:c>
+      <x:c r="W32" s="0" t="s">
+        <x:v>849</x:v>
+      </x:c>
+      <x:c r="X32" s="0" t="s">
+        <x:v>850</x:v>
+      </x:c>
+      <x:c r="Y32" s="0" t="s">
+        <x:v>851</x:v>
+      </x:c>
+      <x:c r="Z32" s="0" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="AA32" s="0" t="s">
+        <x:v>853</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:5">
-      <x:c r="A22" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:5">
-      <x:c r="A23" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:5">
-      <x:c r="A24" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:5">
-      <x:c r="A25" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:5">
-      <x:c r="A26" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E26" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:5">
-      <x:c r="A27" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E27" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:5">
-      <x:c r="A28" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:5">
-      <x:c r="A29" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="E29" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:5">
-      <x:c r="A30" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s">
-        <x:v>148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:5">
-      <x:c r="A31" s="0" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="C31" s="0" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="E31" s="0" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:5">
-      <x:c r="A32" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="C32" s="0" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="E32" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:5">
+    <x:row r="33" spans="1:27">
       <x:c r="A33" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>858</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>859</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>860</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>861</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>862</x:v>
+      </x:c>
+      <x:c r="J33" s="0" t="s">
+        <x:v>863</x:v>
+      </x:c>
+      <x:c r="K33" s="0" t="s">
+        <x:v>864</x:v>
+      </x:c>
+      <x:c r="L33" s="0" t="s">
+        <x:v>865</x:v>
+      </x:c>
+      <x:c r="M33" s="0" t="s">
+        <x:v>866</x:v>
+      </x:c>
+      <x:c r="N33" s="0" t="s">
+        <x:v>867</x:v>
+      </x:c>
+      <x:c r="O33" s="0" t="s">
+        <x:v>868</x:v>
+      </x:c>
+      <x:c r="P33" s="0" t="s">
+        <x:v>869</x:v>
+      </x:c>
+      <x:c r="Q33" s="0" t="s">
+        <x:v>870</x:v>
+      </x:c>
+      <x:c r="R33" s="0" t="s">
+        <x:v>871</x:v>
+      </x:c>
+      <x:c r="S33" s="0" t="s">
+        <x:v>872</x:v>
+      </x:c>
+      <x:c r="T33" s="0" t="s">
+        <x:v>873</x:v>
+      </x:c>
+      <x:c r="U33" s="0" t="s">
+        <x:v>874</x:v>
+      </x:c>
+      <x:c r="V33" s="0" t="s">
+        <x:v>875</x:v>
+      </x:c>
+      <x:c r="W33" s="0" t="s">
+        <x:v>876</x:v>
+      </x:c>
+      <x:c r="X33" s="0" t="s">
+        <x:v>877</x:v>
+      </x:c>
+      <x:c r="Y33" s="0" t="s">
+        <x:v>878</x:v>
+      </x:c>
+      <x:c r="Z33" s="0" t="s">
+        <x:v>879</x:v>
+      </x:c>
+      <x:c r="AA33" s="0" t="s">
+        <x:v>880</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
